--- a/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Story_AvgRole.xlsx
+++ b/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Story_AvgRole.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7288" uniqueCount="3597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7288" uniqueCount="3596">
   <si>
     <t>AvgRole_1001_RoleName</t>
   </si>
@@ -1657,7 +1657,7 @@
     <t>莱克</t>
   </si>
   <si>
-    <t>레이커</t>
+    <t>라이커</t>
   </si>
   <si>
     <t>AvgRole_1125_Sign</t>
@@ -4981,7 +4981,7 @@
     <t>贪玩的夏洛特</t>
   </si>
   <si>
-    <t>장난스러운 샬롯</t>
+    <t>장난스런 샬롯</t>
   </si>
   <si>
     <t>AvgRole_1366_RoleName</t>
@@ -4993,7 +4993,7 @@
     <t>恐惧的夏洛特</t>
   </si>
   <si>
-    <t>두려워하는 샬롯</t>
+    <t>두려운 샬롯</t>
   </si>
   <si>
     <t>AvgRole_1367_RoleName</t>
@@ -8080,9 +8080,6 @@
     <t>arBT</t>
   </si>
   <si>
-    <t>라이커</t>
-  </si>
-  <si>
     <t>AvgRole_1764_RoleName</t>
   </si>
   <si>
@@ -8773,7 +8770,7 @@
     <t>泰旖丝？</t>
   </si>
   <si>
-    <t>xkdltm?</t>
+    <t>타이스?</t>
   </si>
   <si>
     <t>AvgRole_1832_RoleName</t>
@@ -10423,7 +10420,7 @@
     <t>少年卡斯托尔</t>
   </si>
   <si>
-    <t>소년 카스토르</t>
+    <t>어린 카스토르</t>
   </si>
   <si>
     <t>AvgRole_1983_RoleName</t>
@@ -10435,7 +10432,7 @@
     <t>少年波吕克斯</t>
   </si>
   <si>
-    <t>소년 폴룩스</t>
+    <t>어린 폴룩스</t>
   </si>
   <si>
     <t>AvgRole_1984_RoleName</t>
@@ -10841,7 +10838,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -10852,11 +10849,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -10864,6 +10861,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -31818,16 +31816,16 @@
         <v>547</v>
       </c>
       <c r="I768" s="3" t="s">
-        <v>2689</v>
+        <v>548</v>
       </c>
       <c r="J768" s="4"/>
     </row>
     <row r="769">
       <c r="A769" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B769" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="B769" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>2</v>
@@ -31851,10 +31849,10 @@
     </row>
     <row r="770">
       <c r="A770" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B770" s="1" t="s">
         <v>2692</v>
-      </c>
-      <c r="B770" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>2</v>
@@ -31869,19 +31867,19 @@
         <v>4</v>
       </c>
       <c r="H770" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="I770" s="3" t="s">
         <v>2694</v>
-      </c>
-      <c r="I770" s="3" t="s">
-        <v>2695</v>
       </c>
       <c r="J770" s="4"/>
     </row>
     <row r="771">
       <c r="A771" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B771" s="1" t="s">
         <v>2696</v>
-      </c>
-      <c r="B771" s="1" t="s">
-        <v>2697</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>2</v>
@@ -31896,19 +31894,19 @@
         <v>4</v>
       </c>
       <c r="H771" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="I771" s="8" t="s">
         <v>2698</v>
-      </c>
-      <c r="I771" s="7" t="s">
-        <v>2699</v>
       </c>
       <c r="J771" s="4"/>
     </row>
     <row r="772">
       <c r="A772" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B772" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="B772" s="1" t="s">
-        <v>2701</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>2</v>
@@ -31923,19 +31921,19 @@
         <v>4</v>
       </c>
       <c r="H772" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="I772" s="3" t="s">
         <v>2702</v>
-      </c>
-      <c r="I772" s="3" t="s">
-        <v>2703</v>
       </c>
       <c r="J772" s="4"/>
     </row>
     <row r="773">
       <c r="A773" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B773" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="B773" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>2</v>
@@ -31950,19 +31948,19 @@
         <v>4</v>
       </c>
       <c r="H773" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="I773" s="3" t="s">
         <v>2706</v>
-      </c>
-      <c r="I773" s="3" t="s">
-        <v>2707</v>
       </c>
       <c r="J773" s="4"/>
     </row>
     <row r="774">
       <c r="A774" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B774" s="1" t="s">
         <v>2708</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>2709</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>2</v>
@@ -31977,19 +31975,19 @@
         <v>4</v>
       </c>
       <c r="H774" s="2" t="s">
+        <v>2709</v>
+      </c>
+      <c r="I774" s="3" t="s">
         <v>2710</v>
-      </c>
-      <c r="I774" s="3" t="s">
-        <v>2711</v>
       </c>
       <c r="J774" s="4"/>
     </row>
     <row r="775">
       <c r="A775" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B775" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="B775" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>2</v>
@@ -32013,10 +32011,10 @@
     </row>
     <row r="776">
       <c r="A776" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B776" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>2</v>
@@ -32031,19 +32029,19 @@
         <v>4</v>
       </c>
       <c r="H776" s="2" t="s">
+        <v>2715</v>
+      </c>
+      <c r="I776" s="6" t="s">
         <v>2716</v>
-      </c>
-      <c r="I776" s="6" t="s">
-        <v>2717</v>
       </c>
       <c r="J776" s="4"/>
     </row>
     <row r="777">
       <c r="A777" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B777" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>2</v>
@@ -32067,10 +32065,10 @@
     </row>
     <row r="778">
       <c r="A778" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B778" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="B778" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>2</v>
@@ -32094,10 +32092,10 @@
     </row>
     <row r="779">
       <c r="A779" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B779" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="B779" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>2</v>
@@ -32112,19 +32110,19 @@
         <v>4</v>
       </c>
       <c r="H779" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="I779" s="6" t="s">
         <v>2724</v>
-      </c>
-      <c r="I779" s="6" t="s">
-        <v>2725</v>
       </c>
       <c r="J779" s="4"/>
     </row>
     <row r="780">
       <c r="A780" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B780" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>2</v>
@@ -32139,19 +32137,19 @@
         <v>4</v>
       </c>
       <c r="H780" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="I780" s="6" t="s">
         <v>2728</v>
-      </c>
-      <c r="I780" s="6" t="s">
-        <v>2729</v>
       </c>
       <c r="J780" s="4"/>
     </row>
     <row r="781">
       <c r="A781" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B781" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="B781" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>2</v>
@@ -32166,19 +32164,19 @@
         <v>4</v>
       </c>
       <c r="H781" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="I781" s="6" t="s">
         <v>2732</v>
-      </c>
-      <c r="I781" s="6" t="s">
-        <v>2733</v>
       </c>
       <c r="J781" s="4"/>
     </row>
     <row r="782">
       <c r="A782" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B782" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="B782" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>2</v>
@@ -32193,19 +32191,19 @@
         <v>4</v>
       </c>
       <c r="H782" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="I782" s="5" t="s">
         <v>2736</v>
-      </c>
-      <c r="I782" s="5" t="s">
-        <v>2737</v>
       </c>
       <c r="J782" s="4"/>
     </row>
     <row r="783">
       <c r="A783" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B783" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="B783" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>2</v>
@@ -32220,19 +32218,19 @@
         <v>4</v>
       </c>
       <c r="H783" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="I783" s="5" t="s">
         <v>2740</v>
-      </c>
-      <c r="I783" s="5" t="s">
-        <v>2741</v>
       </c>
       <c r="J783" s="4"/>
     </row>
     <row r="784">
       <c r="A784" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B784" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="B784" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>2</v>
@@ -32247,19 +32245,19 @@
         <v>4</v>
       </c>
       <c r="H784" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="I784" s="5" t="s">
         <v>2744</v>
-      </c>
-      <c r="I784" s="5" t="s">
-        <v>2745</v>
       </c>
       <c r="J784" s="4"/>
     </row>
     <row r="785">
       <c r="A785" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B785" s="1" t="s">
         <v>2746</v>
-      </c>
-      <c r="B785" s="1" t="s">
-        <v>2747</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>2</v>
@@ -32274,19 +32272,19 @@
         <v>4</v>
       </c>
       <c r="H785" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="I785" s="6" t="s">
         <v>2748</v>
-      </c>
-      <c r="I785" s="6" t="s">
-        <v>2749</v>
       </c>
       <c r="J785" s="4"/>
     </row>
     <row r="786">
       <c r="A786" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B786" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="B786" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>2</v>
@@ -32301,19 +32299,19 @@
         <v>4</v>
       </c>
       <c r="H786" s="2" t="s">
+        <v>2751</v>
+      </c>
+      <c r="I786" s="6" t="s">
         <v>2752</v>
-      </c>
-      <c r="I786" s="6" t="s">
-        <v>2753</v>
       </c>
       <c r="J786" s="4"/>
     </row>
     <row r="787">
       <c r="A787" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B787" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="B787" s="1" t="s">
-        <v>2755</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>2</v>
@@ -32328,19 +32326,19 @@
         <v>4</v>
       </c>
       <c r="H787" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="I787" s="3" t="s">
         <v>2756</v>
-      </c>
-      <c r="I787" s="3" t="s">
-        <v>2757</v>
       </c>
       <c r="J787" s="4"/>
     </row>
     <row r="788">
       <c r="A788" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B788" s="1" t="s">
         <v>2758</v>
-      </c>
-      <c r="B788" s="1" t="s">
-        <v>2759</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>2</v>
@@ -32364,10 +32362,10 @@
     </row>
     <row r="789">
       <c r="A789" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B789" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="B789" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>2</v>
@@ -32391,10 +32389,10 @@
     </row>
     <row r="790">
       <c r="A790" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B790" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="B790" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>2</v>
@@ -32418,10 +32416,10 @@
     </row>
     <row r="791">
       <c r="A791" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B791" s="1" t="s">
         <v>2764</v>
-      </c>
-      <c r="B791" s="1" t="s">
-        <v>2765</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>2</v>
@@ -32436,19 +32434,19 @@
         <v>4</v>
       </c>
       <c r="H791" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="I791" s="3" t="s">
         <v>2766</v>
-      </c>
-      <c r="I791" s="3" t="s">
-        <v>2767</v>
       </c>
       <c r="J791" s="4"/>
     </row>
     <row r="792">
       <c r="A792" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B792" s="1" t="s">
         <v>2768</v>
-      </c>
-      <c r="B792" s="1" t="s">
-        <v>2769</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>2</v>
@@ -32472,10 +32470,10 @@
     </row>
     <row r="793">
       <c r="A793" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B793" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="B793" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>2</v>
@@ -32499,10 +32497,10 @@
     </row>
     <row r="794">
       <c r="A794" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B794" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="B794" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>2</v>
@@ -32517,19 +32515,19 @@
         <v>4</v>
       </c>
       <c r="H794" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I794" s="6" t="s">
         <v>2774</v>
-      </c>
-      <c r="I794" s="6" t="s">
-        <v>2775</v>
       </c>
       <c r="J794" s="4"/>
     </row>
     <row r="795">
       <c r="A795" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B795" s="1" t="s">
         <v>2776</v>
-      </c>
-      <c r="B795" s="1" t="s">
-        <v>2777</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>2</v>
@@ -32544,19 +32542,19 @@
         <v>4</v>
       </c>
       <c r="H795" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="I795" s="6" t="s">
         <v>2778</v>
-      </c>
-      <c r="I795" s="6" t="s">
-        <v>2779</v>
       </c>
       <c r="J795" s="4"/>
     </row>
     <row r="796">
       <c r="A796" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B796" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="B796" s="1" t="s">
-        <v>2781</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>2</v>
@@ -32571,19 +32569,19 @@
         <v>4</v>
       </c>
       <c r="H796" s="2" t="s">
+        <v>2781</v>
+      </c>
+      <c r="I796" s="6" t="s">
         <v>2782</v>
-      </c>
-      <c r="I796" s="6" t="s">
-        <v>2783</v>
       </c>
       <c r="J796" s="4"/>
     </row>
     <row r="797">
       <c r="A797" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B797" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="B797" s="1" t="s">
-        <v>2785</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>2</v>
@@ -32598,19 +32596,19 @@
         <v>4</v>
       </c>
       <c r="H797" s="2" t="s">
+        <v>2785</v>
+      </c>
+      <c r="I797" s="6" t="s">
         <v>2786</v>
-      </c>
-      <c r="I797" s="6" t="s">
-        <v>2787</v>
       </c>
       <c r="J797" s="4"/>
     </row>
     <row r="798">
       <c r="A798" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B798" s="1" t="s">
         <v>2788</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>2789</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>2</v>
@@ -32634,10 +32632,10 @@
     </row>
     <row r="799">
       <c r="A799" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B799" s="1" t="s">
         <v>2790</v>
-      </c>
-      <c r="B799" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>2</v>
@@ -32661,10 +32659,10 @@
     </row>
     <row r="800">
       <c r="A800" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B800" s="1" t="s">
         <v>2792</v>
-      </c>
-      <c r="B800" s="1" t="s">
-        <v>2793</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>2</v>
@@ -32679,7 +32677,7 @@
         <v>220</v>
       </c>
       <c r="H800" s="2" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="I800" s="3" t="s">
         <v>1226</v>
@@ -32688,10 +32686,10 @@
     </row>
     <row r="801">
       <c r="A801" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B801" s="1" t="s">
         <v>2795</v>
-      </c>
-      <c r="B801" s="1" t="s">
-        <v>2796</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>2</v>
@@ -32715,10 +32713,10 @@
     </row>
     <row r="802">
       <c r="A802" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B802" s="1" t="s">
         <v>2797</v>
-      </c>
-      <c r="B802" s="1" t="s">
-        <v>2798</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>2</v>
@@ -32733,19 +32731,19 @@
         <v>220</v>
       </c>
       <c r="H802" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I802" s="3" t="s">
         <v>2799</v>
-      </c>
-      <c r="I802" s="3" t="s">
-        <v>2800</v>
       </c>
       <c r="J802" s="4"/>
     </row>
     <row r="803">
       <c r="A803" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B803" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="B803" s="1" t="s">
-        <v>2802</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>2</v>
@@ -32760,19 +32758,19 @@
         <v>4</v>
       </c>
       <c r="H803" s="2" t="s">
+        <v>2802</v>
+      </c>
+      <c r="I803" s="3" t="s">
         <v>2803</v>
-      </c>
-      <c r="I803" s="3" t="s">
-        <v>2804</v>
       </c>
       <c r="J803" s="4"/>
     </row>
     <row r="804">
       <c r="A804" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B804" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="B804" s="1" t="s">
-        <v>2806</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>2</v>
@@ -32787,19 +32785,19 @@
         <v>220</v>
       </c>
       <c r="H804" s="2" t="s">
+        <v>2806</v>
+      </c>
+      <c r="I804" s="3" t="s">
         <v>2807</v>
-      </c>
-      <c r="I804" s="3" t="s">
-        <v>2808</v>
       </c>
       <c r="J804" s="4"/>
     </row>
     <row r="805">
       <c r="A805" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B805" s="1" t="s">
         <v>2809</v>
-      </c>
-      <c r="B805" s="1" t="s">
-        <v>2810</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>2</v>
@@ -32823,10 +32821,10 @@
     </row>
     <row r="806">
       <c r="A806" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B806" s="1" t="s">
         <v>2811</v>
-      </c>
-      <c r="B806" s="1" t="s">
-        <v>2812</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>2</v>
@@ -32850,10 +32848,10 @@
     </row>
     <row r="807">
       <c r="A807" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B807" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="B807" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>2</v>
@@ -32877,10 +32875,10 @@
     </row>
     <row r="808">
       <c r="A808" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B808" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="B808" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>2</v>
@@ -32895,19 +32893,19 @@
         <v>4</v>
       </c>
       <c r="H808" s="2" t="s">
+        <v>2816</v>
+      </c>
+      <c r="I808" s="3" t="s">
         <v>2817</v>
-      </c>
-      <c r="I808" s="3" t="s">
-        <v>2818</v>
       </c>
       <c r="J808" s="4"/>
     </row>
     <row r="809">
       <c r="A809" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B809" s="1" t="s">
         <v>2819</v>
-      </c>
-      <c r="B809" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>2</v>
@@ -32922,19 +32920,19 @@
         <v>4</v>
       </c>
       <c r="H809" s="2" t="s">
+        <v>2820</v>
+      </c>
+      <c r="I809" s="3" t="s">
         <v>2821</v>
-      </c>
-      <c r="I809" s="3" t="s">
-        <v>2822</v>
       </c>
       <c r="J809" s="4"/>
     </row>
     <row r="810">
       <c r="A810" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B810" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="B810" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>2</v>
@@ -32949,19 +32947,19 @@
         <v>4</v>
       </c>
       <c r="H810" s="2" t="s">
+        <v>2824</v>
+      </c>
+      <c r="I810" s="3" t="s">
         <v>2825</v>
-      </c>
-      <c r="I810" s="3" t="s">
-        <v>2826</v>
       </c>
       <c r="J810" s="4"/>
     </row>
     <row r="811">
       <c r="A811" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B811" s="1" t="s">
         <v>2827</v>
-      </c>
-      <c r="B811" s="1" t="s">
-        <v>2828</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>2</v>
@@ -32976,19 +32974,19 @@
         <v>4</v>
       </c>
       <c r="H811" s="2" t="s">
+        <v>2828</v>
+      </c>
+      <c r="I811" s="3" t="s">
         <v>2829</v>
-      </c>
-      <c r="I811" s="3" t="s">
-        <v>2830</v>
       </c>
       <c r="J811" s="4"/>
     </row>
     <row r="812">
       <c r="A812" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B812" s="1" t="s">
         <v>2831</v>
-      </c>
-      <c r="B812" s="1" t="s">
-        <v>2832</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>2</v>
@@ -33003,19 +33001,19 @@
         <v>4</v>
       </c>
       <c r="H812" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="I812" s="3" t="s">
         <v>2833</v>
-      </c>
-      <c r="I812" s="3" t="s">
-        <v>2834</v>
       </c>
       <c r="J812" s="4"/>
     </row>
     <row r="813">
       <c r="A813" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B813" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="B813" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>2</v>
@@ -33030,19 +33028,19 @@
         <v>4</v>
       </c>
       <c r="H813" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="I813" s="3" t="s">
         <v>2837</v>
-      </c>
-      <c r="I813" s="3" t="s">
-        <v>2838</v>
       </c>
       <c r="J813" s="4"/>
     </row>
     <row r="814">
       <c r="A814" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B814" s="1" t="s">
         <v>2839</v>
-      </c>
-      <c r="B814" s="1" t="s">
-        <v>2840</v>
       </c>
       <c r="C814" s="1" t="s">
         <v>2</v>
@@ -33066,10 +33064,10 @@
     </row>
     <row r="815">
       <c r="A815" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B815" s="1" t="s">
         <v>2841</v>
-      </c>
-      <c r="B815" s="1" t="s">
-        <v>2842</v>
       </c>
       <c r="C815" s="1" t="s">
         <v>2</v>
@@ -33093,10 +33091,10 @@
     </row>
     <row r="816">
       <c r="A816" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B816" s="1" t="s">
         <v>2843</v>
-      </c>
-      <c r="B816" s="1" t="s">
-        <v>2844</v>
       </c>
       <c r="C816" s="1" t="s">
         <v>2</v>
@@ -33111,19 +33109,19 @@
         <v>4</v>
       </c>
       <c r="H816" s="2" t="s">
+        <v>2844</v>
+      </c>
+      <c r="I816" s="3" t="s">
         <v>2845</v>
-      </c>
-      <c r="I816" s="3" t="s">
-        <v>2846</v>
       </c>
       <c r="J816" s="4"/>
     </row>
     <row r="817">
       <c r="A817" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B817" s="1" t="s">
         <v>2847</v>
-      </c>
-      <c r="B817" s="1" t="s">
-        <v>2848</v>
       </c>
       <c r="C817" s="1" t="s">
         <v>2</v>
@@ -33147,10 +33145,10 @@
     </row>
     <row r="818">
       <c r="A818" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B818" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="B818" s="1" t="s">
-        <v>2850</v>
       </c>
       <c r="C818" s="1" t="s">
         <v>2</v>
@@ -33174,10 +33172,10 @@
     </row>
     <row r="819">
       <c r="A819" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B819" s="1" t="s">
         <v>2851</v>
-      </c>
-      <c r="B819" s="1" t="s">
-        <v>2852</v>
       </c>
       <c r="C819" s="1" t="s">
         <v>2</v>
@@ -33201,10 +33199,10 @@
     </row>
     <row r="820">
       <c r="A820" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B820" s="1" t="s">
         <v>2853</v>
-      </c>
-      <c r="B820" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>2</v>
@@ -33219,19 +33217,19 @@
         <v>4</v>
       </c>
       <c r="H820" s="2" t="s">
+        <v>2854</v>
+      </c>
+      <c r="I820" s="6" t="s">
         <v>2855</v>
-      </c>
-      <c r="I820" s="6" t="s">
-        <v>2856</v>
       </c>
       <c r="J820" s="4"/>
     </row>
     <row r="821">
       <c r="A821" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B821" s="1" t="s">
         <v>2857</v>
-      </c>
-      <c r="B821" s="1" t="s">
-        <v>2858</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>2</v>
@@ -33255,10 +33253,10 @@
     </row>
     <row r="822">
       <c r="A822" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B822" s="1" t="s">
         <v>2859</v>
-      </c>
-      <c r="B822" s="1" t="s">
-        <v>2860</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>2</v>
@@ -33282,10 +33280,10 @@
     </row>
     <row r="823">
       <c r="A823" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B823" s="1" t="s">
         <v>2861</v>
-      </c>
-      <c r="B823" s="1" t="s">
-        <v>2862</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>2</v>
@@ -33300,19 +33298,19 @@
         <v>4</v>
       </c>
       <c r="H823" s="2" t="s">
+        <v>2862</v>
+      </c>
+      <c r="I823" s="3" t="s">
         <v>2863</v>
-      </c>
-      <c r="I823" s="3" t="s">
-        <v>2864</v>
       </c>
       <c r="J823" s="4"/>
     </row>
     <row r="824">
       <c r="A824" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B824" s="1" t="s">
         <v>2865</v>
-      </c>
-      <c r="B824" s="1" t="s">
-        <v>2866</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>2</v>
@@ -33327,19 +33325,19 @@
         <v>4</v>
       </c>
       <c r="H824" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="I824" s="3" t="s">
         <v>2867</v>
-      </c>
-      <c r="I824" s="3" t="s">
-        <v>2868</v>
       </c>
       <c r="J824" s="4"/>
     </row>
     <row r="825">
       <c r="A825" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B825" s="1" t="s">
         <v>2869</v>
-      </c>
-      <c r="B825" s="1" t="s">
-        <v>2870</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>2</v>
@@ -33363,10 +33361,10 @@
     </row>
     <row r="826">
       <c r="A826" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B826" s="1" t="s">
         <v>2871</v>
-      </c>
-      <c r="B826" s="1" t="s">
-        <v>2872</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>2</v>
@@ -33390,10 +33388,10 @@
     </row>
     <row r="827">
       <c r="A827" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B827" s="1" t="s">
         <v>2873</v>
-      </c>
-      <c r="B827" s="1" t="s">
-        <v>2874</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>2</v>
@@ -33408,19 +33406,19 @@
         <v>4</v>
       </c>
       <c r="H827" s="2" t="s">
+        <v>2874</v>
+      </c>
+      <c r="I827" s="6" t="s">
         <v>2875</v>
-      </c>
-      <c r="I827" s="6" t="s">
-        <v>2876</v>
       </c>
       <c r="J827" s="4"/>
     </row>
     <row r="828">
       <c r="A828" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B828" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="B828" s="1" t="s">
-        <v>2878</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>2</v>
@@ -33435,19 +33433,19 @@
         <v>4</v>
       </c>
       <c r="H828" s="2" t="s">
+        <v>2878</v>
+      </c>
+      <c r="I828" s="3" t="s">
         <v>2879</v>
-      </c>
-      <c r="I828" s="3" t="s">
-        <v>2880</v>
       </c>
       <c r="J828" s="4"/>
     </row>
     <row r="829">
       <c r="A829" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B829" s="1" t="s">
         <v>2881</v>
-      </c>
-      <c r="B829" s="1" t="s">
-        <v>2882</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>2</v>
@@ -33471,10 +33469,10 @@
     </row>
     <row r="830">
       <c r="A830" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B830" s="1" t="s">
         <v>2883</v>
-      </c>
-      <c r="B830" s="1" t="s">
-        <v>2884</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>2</v>
@@ -33498,10 +33496,10 @@
     </row>
     <row r="831">
       <c r="A831" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B831" s="1" t="s">
         <v>2885</v>
-      </c>
-      <c r="B831" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="C831" s="1" t="s">
         <v>2</v>
@@ -33525,10 +33523,10 @@
     </row>
     <row r="832">
       <c r="A832" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B832" s="1" t="s">
         <v>2887</v>
-      </c>
-      <c r="B832" s="1" t="s">
-        <v>2888</v>
       </c>
       <c r="C832" s="1" t="s">
         <v>2</v>
@@ -33543,19 +33541,19 @@
         <v>4</v>
       </c>
       <c r="H832" s="2" t="s">
+        <v>2888</v>
+      </c>
+      <c r="I832" s="3" t="s">
         <v>2889</v>
-      </c>
-      <c r="I832" s="3" t="s">
-        <v>2890</v>
       </c>
       <c r="J832" s="4"/>
     </row>
     <row r="833">
       <c r="A833" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B833" s="1" t="s">
         <v>2891</v>
-      </c>
-      <c r="B833" s="1" t="s">
-        <v>2892</v>
       </c>
       <c r="C833" s="1" t="s">
         <v>2</v>
@@ -33570,19 +33568,19 @@
         <v>4</v>
       </c>
       <c r="H833" s="2" t="s">
+        <v>2892</v>
+      </c>
+      <c r="I833" s="3" t="s">
         <v>2893</v>
-      </c>
-      <c r="I833" s="3" t="s">
-        <v>2894</v>
       </c>
       <c r="J833" s="4"/>
     </row>
     <row r="834">
       <c r="A834" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B834" s="1" t="s">
         <v>2895</v>
-      </c>
-      <c r="B834" s="1" t="s">
-        <v>2896</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>2</v>
@@ -33597,19 +33595,19 @@
         <v>4</v>
       </c>
       <c r="H834" s="2" t="s">
+        <v>2896</v>
+      </c>
+      <c r="I834" s="3" t="s">
         <v>2897</v>
-      </c>
-      <c r="I834" s="3" t="s">
-        <v>2898</v>
       </c>
       <c r="J834" s="4"/>
     </row>
     <row r="835">
       <c r="A835" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B835" s="1" t="s">
         <v>2899</v>
-      </c>
-      <c r="B835" s="1" t="s">
-        <v>2900</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2</v>
@@ -33633,10 +33631,10 @@
     </row>
     <row r="836">
       <c r="A836" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B836" s="1" t="s">
         <v>2901</v>
-      </c>
-      <c r="B836" s="1" t="s">
-        <v>2902</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>2</v>
@@ -33651,19 +33649,19 @@
         <v>4</v>
       </c>
       <c r="H836" s="2" t="s">
+        <v>2902</v>
+      </c>
+      <c r="I836" s="3" t="s">
         <v>2903</v>
-      </c>
-      <c r="I836" s="3" t="s">
-        <v>2904</v>
       </c>
       <c r="J836" s="4"/>
     </row>
     <row r="837">
       <c r="A837" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B837" s="1" t="s">
         <v>2905</v>
-      </c>
-      <c r="B837" s="1" t="s">
-        <v>2906</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>2</v>
@@ -33678,19 +33676,19 @@
         <v>4</v>
       </c>
       <c r="H837" s="2" t="s">
+        <v>2906</v>
+      </c>
+      <c r="I837" s="3" t="s">
         <v>2907</v>
-      </c>
-      <c r="I837" s="3" t="s">
-        <v>2908</v>
       </c>
       <c r="J837" s="4"/>
     </row>
     <row r="838">
       <c r="A838" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B838" s="1" t="s">
         <v>2909</v>
-      </c>
-      <c r="B838" s="1" t="s">
-        <v>2910</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>2</v>
@@ -33705,19 +33703,19 @@
         <v>4</v>
       </c>
       <c r="H838" s="2" t="s">
+        <v>2910</v>
+      </c>
+      <c r="I838" s="6" t="s">
         <v>2911</v>
-      </c>
-      <c r="I838" s="6" t="s">
-        <v>2912</v>
       </c>
       <c r="J838" s="4"/>
     </row>
     <row r="839">
       <c r="A839" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B839" s="1" t="s">
         <v>2913</v>
-      </c>
-      <c r="B839" s="1" t="s">
-        <v>2914</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>2</v>
@@ -33732,19 +33730,19 @@
         <v>4</v>
       </c>
       <c r="H839" s="2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I839" s="2" t="s">
         <v>2915</v>
-      </c>
-      <c r="I839" s="2" t="s">
-        <v>2916</v>
       </c>
       <c r="J839" s="4"/>
     </row>
     <row r="840">
       <c r="A840" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B840" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="B840" s="1" t="s">
-        <v>2918</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>2</v>
@@ -33759,19 +33757,19 @@
         <v>4</v>
       </c>
       <c r="H840" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="I840" s="3" t="s">
         <v>2919</v>
-      </c>
-      <c r="I840" s="3" t="s">
-        <v>2920</v>
       </c>
       <c r="J840" s="4"/>
     </row>
     <row r="841">
       <c r="A841" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B841" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="B841" s="1" t="s">
-        <v>2922</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>2</v>
@@ -33786,19 +33784,19 @@
         <v>4</v>
       </c>
       <c r="H841" s="2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I841" s="3" t="s">
         <v>2923</v>
-      </c>
-      <c r="I841" s="3" t="s">
-        <v>2924</v>
       </c>
       <c r="J841" s="4"/>
     </row>
     <row r="842">
       <c r="A842" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B842" s="1" t="s">
         <v>2925</v>
-      </c>
-      <c r="B842" s="1" t="s">
-        <v>2926</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>2</v>
@@ -33813,19 +33811,19 @@
         <v>4</v>
       </c>
       <c r="H842" s="2" t="s">
+        <v>2926</v>
+      </c>
+      <c r="I842" s="3" t="s">
         <v>2927</v>
-      </c>
-      <c r="I842" s="3" t="s">
-        <v>2928</v>
       </c>
       <c r="J842" s="4"/>
     </row>
     <row r="843">
       <c r="A843" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B843" s="1" t="s">
         <v>2929</v>
-      </c>
-      <c r="B843" s="1" t="s">
-        <v>2930</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>2</v>
@@ -33840,19 +33838,19 @@
         <v>4</v>
       </c>
       <c r="H843" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="I843" s="3" t="s">
         <v>2931</v>
-      </c>
-      <c r="I843" s="3" t="s">
-        <v>2932</v>
       </c>
       <c r="J843" s="4"/>
     </row>
     <row r="844">
       <c r="A844" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B844" s="1" t="s">
         <v>2933</v>
-      </c>
-      <c r="B844" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>2</v>
@@ -33867,19 +33865,19 @@
         <v>4</v>
       </c>
       <c r="H844" s="2" t="s">
+        <v>2934</v>
+      </c>
+      <c r="I844" s="3" t="s">
         <v>2935</v>
-      </c>
-      <c r="I844" s="3" t="s">
-        <v>2936</v>
       </c>
       <c r="J844" s="4"/>
     </row>
     <row r="845">
       <c r="A845" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B845" s="1" t="s">
         <v>2937</v>
-      </c>
-      <c r="B845" s="1" t="s">
-        <v>2938</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>2</v>
@@ -33894,19 +33892,19 @@
         <v>4</v>
       </c>
       <c r="H845" s="2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I845" s="3" t="s">
         <v>2939</v>
-      </c>
-      <c r="I845" s="3" t="s">
-        <v>2940</v>
       </c>
       <c r="J845" s="4"/>
     </row>
     <row r="846">
       <c r="A846" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B846" s="1" t="s">
         <v>2941</v>
-      </c>
-      <c r="B846" s="1" t="s">
-        <v>2942</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>2</v>
@@ -33921,19 +33919,19 @@
         <v>4</v>
       </c>
       <c r="H846" s="2" t="s">
+        <v>2942</v>
+      </c>
+      <c r="I846" s="3" t="s">
         <v>2943</v>
-      </c>
-      <c r="I846" s="3" t="s">
-        <v>2944</v>
       </c>
       <c r="J846" s="4"/>
     </row>
     <row r="847">
       <c r="A847" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B847" s="1" t="s">
         <v>2945</v>
-      </c>
-      <c r="B847" s="1" t="s">
-        <v>2946</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>2</v>
@@ -33957,10 +33955,10 @@
     </row>
     <row r="848">
       <c r="A848" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B848" s="1" t="s">
         <v>2947</v>
-      </c>
-      <c r="B848" s="1" t="s">
-        <v>2948</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>2</v>
@@ -33984,10 +33982,10 @@
     </row>
     <row r="849">
       <c r="A849" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B849" s="1" t="s">
         <v>2949</v>
-      </c>
-      <c r="B849" s="1" t="s">
-        <v>2950</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>2</v>
@@ -34002,19 +34000,19 @@
         <v>4</v>
       </c>
       <c r="H849" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="I849" s="3" t="s">
         <v>2951</v>
-      </c>
-      <c r="I849" s="3" t="s">
-        <v>2952</v>
       </c>
       <c r="J849" s="4"/>
     </row>
     <row r="850">
       <c r="A850" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B850" s="1" t="s">
         <v>2953</v>
-      </c>
-      <c r="B850" s="1" t="s">
-        <v>2954</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>2</v>
@@ -34029,19 +34027,19 @@
         <v>4</v>
       </c>
       <c r="H850" s="2" t="s">
+        <v>2954</v>
+      </c>
+      <c r="I850" s="3" t="s">
         <v>2955</v>
-      </c>
-      <c r="I850" s="3" t="s">
-        <v>2956</v>
       </c>
       <c r="J850" s="4"/>
     </row>
     <row r="851">
       <c r="A851" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B851" s="1" t="s">
         <v>2957</v>
-      </c>
-      <c r="B851" s="1" t="s">
-        <v>2958</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>2</v>
@@ -34056,19 +34054,19 @@
         <v>4</v>
       </c>
       <c r="H851" s="2" t="s">
+        <v>2958</v>
+      </c>
+      <c r="I851" s="3" t="s">
         <v>2959</v>
-      </c>
-      <c r="I851" s="3" t="s">
-        <v>2960</v>
       </c>
       <c r="J851" s="4"/>
     </row>
     <row r="852">
       <c r="A852" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B852" s="1" t="s">
         <v>2961</v>
-      </c>
-      <c r="B852" s="1" t="s">
-        <v>2962</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>2</v>
@@ -34083,19 +34081,19 @@
         <v>4</v>
       </c>
       <c r="H852" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="I852" s="3" t="s">
         <v>2963</v>
-      </c>
-      <c r="I852" s="3" t="s">
-        <v>2964</v>
       </c>
       <c r="J852" s="4"/>
     </row>
     <row r="853">
       <c r="A853" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B853" s="1" t="s">
         <v>2965</v>
-      </c>
-      <c r="B853" s="1" t="s">
-        <v>2966</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>2</v>
@@ -34110,19 +34108,19 @@
         <v>4</v>
       </c>
       <c r="H853" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="I853" s="3" t="s">
         <v>2967</v>
-      </c>
-      <c r="I853" s="3" t="s">
-        <v>2968</v>
       </c>
       <c r="J853" s="4"/>
     </row>
     <row r="854">
       <c r="A854" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B854" s="1" t="s">
         <v>2969</v>
-      </c>
-      <c r="B854" s="1" t="s">
-        <v>2970</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>2</v>
@@ -34137,19 +34135,19 @@
         <v>4</v>
       </c>
       <c r="H854" s="2" t="s">
+        <v>2970</v>
+      </c>
+      <c r="I854" s="3" t="s">
         <v>2971</v>
-      </c>
-      <c r="I854" s="3" t="s">
-        <v>2972</v>
       </c>
       <c r="J854" s="4"/>
     </row>
     <row r="855">
       <c r="A855" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B855" s="1" t="s">
         <v>2973</v>
-      </c>
-      <c r="B855" s="1" t="s">
-        <v>2974</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>2</v>
@@ -34164,19 +34162,19 @@
         <v>4</v>
       </c>
       <c r="H855" s="2" t="s">
+        <v>2974</v>
+      </c>
+      <c r="I855" s="3" t="s">
         <v>2975</v>
-      </c>
-      <c r="I855" s="3" t="s">
-        <v>2976</v>
       </c>
       <c r="J855" s="4"/>
     </row>
     <row r="856">
       <c r="A856" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B856" s="1" t="s">
         <v>2977</v>
-      </c>
-      <c r="B856" s="1" t="s">
-        <v>2978</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>2</v>
@@ -34191,19 +34189,19 @@
         <v>4</v>
       </c>
       <c r="H856" s="2" t="s">
+        <v>2978</v>
+      </c>
+      <c r="I856" s="3" t="s">
         <v>2979</v>
-      </c>
-      <c r="I856" s="3" t="s">
-        <v>2980</v>
       </c>
       <c r="J856" s="4"/>
     </row>
     <row r="857">
       <c r="A857" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B857" s="1" t="s">
         <v>2981</v>
-      </c>
-      <c r="B857" s="1" t="s">
-        <v>2982</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>2</v>
@@ -34218,19 +34216,19 @@
         <v>4</v>
       </c>
       <c r="H857" s="2" t="s">
+        <v>2982</v>
+      </c>
+      <c r="I857" s="3" t="s">
         <v>2983</v>
-      </c>
-      <c r="I857" s="3" t="s">
-        <v>2984</v>
       </c>
       <c r="J857" s="4"/>
     </row>
     <row r="858">
       <c r="A858" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B858" s="1" t="s">
         <v>2985</v>
-      </c>
-      <c r="B858" s="1" t="s">
-        <v>2986</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>2</v>
@@ -34245,19 +34243,19 @@
         <v>4</v>
       </c>
       <c r="H858" s="2" t="s">
+        <v>2986</v>
+      </c>
+      <c r="I858" s="3" t="s">
         <v>2987</v>
-      </c>
-      <c r="I858" s="3" t="s">
-        <v>2988</v>
       </c>
       <c r="J858" s="4"/>
     </row>
     <row r="859">
       <c r="A859" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B859" s="1" t="s">
         <v>2989</v>
-      </c>
-      <c r="B859" s="1" t="s">
-        <v>2990</v>
       </c>
       <c r="C859" s="1" t="s">
         <v>2</v>
@@ -34272,19 +34270,19 @@
         <v>4</v>
       </c>
       <c r="H859" s="2" t="s">
+        <v>2990</v>
+      </c>
+      <c r="I859" s="3" t="s">
         <v>2991</v>
-      </c>
-      <c r="I859" s="3" t="s">
-        <v>2992</v>
       </c>
       <c r="J859" s="4"/>
     </row>
     <row r="860">
       <c r="A860" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B860" s="1" t="s">
         <v>2993</v>
-      </c>
-      <c r="B860" s="1" t="s">
-        <v>2994</v>
       </c>
       <c r="C860" s="1" t="s">
         <v>2</v>
@@ -34299,19 +34297,19 @@
         <v>4</v>
       </c>
       <c r="H860" s="2" t="s">
+        <v>2994</v>
+      </c>
+      <c r="I860" s="3" t="s">
         <v>2995</v>
-      </c>
-      <c r="I860" s="3" t="s">
-        <v>2996</v>
       </c>
       <c r="J860" s="4"/>
     </row>
     <row r="861">
       <c r="A861" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B861" s="1" t="s">
         <v>2997</v>
-      </c>
-      <c r="B861" s="1" t="s">
-        <v>2998</v>
       </c>
       <c r="C861" s="1" t="s">
         <v>2</v>
@@ -34326,19 +34324,19 @@
         <v>4</v>
       </c>
       <c r="H861" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="I861" s="3" t="s">
         <v>2999</v>
-      </c>
-      <c r="I861" s="3" t="s">
-        <v>3000</v>
       </c>
       <c r="J861" s="4"/>
     </row>
     <row r="862">
       <c r="A862" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B862" s="1" t="s">
         <v>3001</v>
-      </c>
-      <c r="B862" s="1" t="s">
-        <v>3002</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>2</v>
@@ -34362,10 +34360,10 @@
     </row>
     <row r="863">
       <c r="A863" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B863" s="1" t="s">
         <v>3003</v>
-      </c>
-      <c r="B863" s="1" t="s">
-        <v>3004</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>2</v>
@@ -34380,19 +34378,19 @@
         <v>4</v>
       </c>
       <c r="H863" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="I863" s="3" t="s">
         <v>3005</v>
-      </c>
-      <c r="I863" s="3" t="s">
-        <v>3006</v>
       </c>
       <c r="J863" s="4"/>
     </row>
     <row r="864">
       <c r="A864" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B864" s="1" t="s">
         <v>3007</v>
-      </c>
-      <c r="B864" s="1" t="s">
-        <v>3008</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>2</v>
@@ -34407,7 +34405,7 @@
         <v>4</v>
       </c>
       <c r="H864" s="2" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="I864" s="6" t="s">
         <v>284</v>
@@ -34416,10 +34414,10 @@
     </row>
     <row r="865">
       <c r="A865" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B865" s="1" t="s">
         <v>3010</v>
-      </c>
-      <c r="B865" s="1" t="s">
-        <v>3011</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>2</v>
@@ -34434,19 +34432,19 @@
         <v>4</v>
       </c>
       <c r="H865" s="2" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I865" s="6" t="s">
         <v>3012</v>
-      </c>
-      <c r="I865" s="6" t="s">
-        <v>3013</v>
       </c>
       <c r="J865" s="4"/>
     </row>
     <row r="866">
       <c r="A866" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B866" s="1" t="s">
         <v>3014</v>
-      </c>
-      <c r="B866" s="1" t="s">
-        <v>3015</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>2</v>
@@ -34461,19 +34459,19 @@
         <v>4</v>
       </c>
       <c r="H866" s="2" t="s">
+        <v>3015</v>
+      </c>
+      <c r="I866" s="6" t="s">
         <v>3016</v>
-      </c>
-      <c r="I866" s="6" t="s">
-        <v>3017</v>
       </c>
       <c r="J866" s="4"/>
     </row>
     <row r="867">
       <c r="A867" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B867" s="1" t="s">
         <v>3018</v>
-      </c>
-      <c r="B867" s="1" t="s">
-        <v>3019</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>2</v>
@@ -34488,19 +34486,19 @@
         <v>4</v>
       </c>
       <c r="H867" s="2" t="s">
+        <v>3019</v>
+      </c>
+      <c r="I867" s="6" t="s">
         <v>3020</v>
-      </c>
-      <c r="I867" s="6" t="s">
-        <v>3021</v>
       </c>
       <c r="J867" s="4"/>
     </row>
     <row r="868">
       <c r="A868" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B868" s="1" t="s">
         <v>3022</v>
-      </c>
-      <c r="B868" s="1" t="s">
-        <v>3023</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>2</v>
@@ -34515,19 +34513,19 @@
         <v>4</v>
       </c>
       <c r="H868" s="2" t="s">
+        <v>3023</v>
+      </c>
+      <c r="I868" s="6" t="s">
         <v>3024</v>
-      </c>
-      <c r="I868" s="6" t="s">
-        <v>3025</v>
       </c>
       <c r="J868" s="4"/>
     </row>
     <row r="869">
       <c r="A869" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B869" s="1" t="s">
         <v>3026</v>
-      </c>
-      <c r="B869" s="1" t="s">
-        <v>3027</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>2</v>
@@ -34542,19 +34540,19 @@
         <v>4</v>
       </c>
       <c r="H869" s="2" t="s">
+        <v>3027</v>
+      </c>
+      <c r="I869" s="6" t="s">
         <v>3028</v>
-      </c>
-      <c r="I869" s="6" t="s">
-        <v>3029</v>
       </c>
       <c r="J869" s="4"/>
     </row>
     <row r="870">
       <c r="A870" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B870" s="1" t="s">
         <v>3030</v>
-      </c>
-      <c r="B870" s="1" t="s">
-        <v>3031</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>2</v>
@@ -34569,19 +34567,19 @@
         <v>4</v>
       </c>
       <c r="H870" s="2" t="s">
+        <v>3031</v>
+      </c>
+      <c r="I870" s="6" t="s">
         <v>3032</v>
-      </c>
-      <c r="I870" s="6" t="s">
-        <v>3033</v>
       </c>
       <c r="J870" s="4"/>
     </row>
     <row r="871">
       <c r="A871" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B871" s="1" t="s">
         <v>3034</v>
-      </c>
-      <c r="B871" s="1" t="s">
-        <v>3035</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>2</v>
@@ -34596,7 +34594,7 @@
         <v>4</v>
       </c>
       <c r="H871" s="2" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="I871" s="6" t="s">
         <v>1925</v>
@@ -34605,10 +34603,10 @@
     </row>
     <row r="872">
       <c r="A872" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B872" s="1" t="s">
         <v>3037</v>
-      </c>
-      <c r="B872" s="1" t="s">
-        <v>3038</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>2</v>
@@ -34623,19 +34621,19 @@
         <v>4</v>
       </c>
       <c r="H872" s="2" t="s">
+        <v>3038</v>
+      </c>
+      <c r="I872" s="6" t="s">
         <v>3039</v>
-      </c>
-      <c r="I872" s="6" t="s">
-        <v>3040</v>
       </c>
       <c r="J872" s="4"/>
     </row>
     <row r="873">
       <c r="A873" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B873" s="1" t="s">
         <v>3041</v>
-      </c>
-      <c r="B873" s="1" t="s">
-        <v>3042</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>2</v>
@@ -34659,10 +34657,10 @@
     </row>
     <row r="874">
       <c r="A874" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B874" s="1" t="s">
         <v>3043</v>
-      </c>
-      <c r="B874" s="1" t="s">
-        <v>3044</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>2</v>
@@ -34686,10 +34684,10 @@
     </row>
     <row r="875">
       <c r="A875" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B875" s="1" t="s">
         <v>3045</v>
-      </c>
-      <c r="B875" s="1" t="s">
-        <v>3046</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>2</v>
@@ -34704,19 +34702,19 @@
         <v>4</v>
       </c>
       <c r="H875" s="2" t="s">
+        <v>3046</v>
+      </c>
+      <c r="I875" s="3" t="s">
         <v>3047</v>
-      </c>
-      <c r="I875" s="3" t="s">
-        <v>3048</v>
       </c>
       <c r="J875" s="4"/>
     </row>
     <row r="876">
       <c r="A876" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B876" s="1" t="s">
         <v>3049</v>
-      </c>
-      <c r="B876" s="1" t="s">
-        <v>3050</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>2</v>
@@ -34731,19 +34729,19 @@
         <v>4</v>
       </c>
       <c r="H876" s="2" t="s">
+        <v>3050</v>
+      </c>
+      <c r="I876" s="3" t="s">
         <v>3051</v>
-      </c>
-      <c r="I876" s="3" t="s">
-        <v>3052</v>
       </c>
       <c r="J876" s="4"/>
     </row>
     <row r="877">
       <c r="A877" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B877" s="1" t="s">
         <v>3053</v>
-      </c>
-      <c r="B877" s="1" t="s">
-        <v>3054</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>2</v>
@@ -34758,19 +34756,19 @@
         <v>4</v>
       </c>
       <c r="H877" s="2" t="s">
+        <v>3054</v>
+      </c>
+      <c r="I877" s="3" t="s">
         <v>3055</v>
-      </c>
-      <c r="I877" s="3" t="s">
-        <v>3056</v>
       </c>
       <c r="J877" s="4"/>
     </row>
     <row r="878">
       <c r="A878" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B878" s="1" t="s">
         <v>3057</v>
-      </c>
-      <c r="B878" s="1" t="s">
-        <v>3058</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>2</v>
@@ -34785,19 +34783,19 @@
         <v>4</v>
       </c>
       <c r="H878" s="2" t="s">
+        <v>3058</v>
+      </c>
+      <c r="I878" s="3" t="s">
         <v>3059</v>
-      </c>
-      <c r="I878" s="3" t="s">
-        <v>3060</v>
       </c>
       <c r="J878" s="4"/>
     </row>
     <row r="879">
       <c r="A879" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B879" s="1" t="s">
         <v>3061</v>
-      </c>
-      <c r="B879" s="1" t="s">
-        <v>3062</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>2</v>
@@ -34812,19 +34810,19 @@
         <v>4</v>
       </c>
       <c r="H879" s="2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="I879" s="3" t="s">
         <v>3063</v>
-      </c>
-      <c r="I879" s="3" t="s">
-        <v>3064</v>
       </c>
       <c r="J879" s="4"/>
     </row>
     <row r="880">
       <c r="A880" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B880" s="1" t="s">
         <v>3065</v>
-      </c>
-      <c r="B880" s="1" t="s">
-        <v>3066</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>2</v>
@@ -34839,19 +34837,19 @@
         <v>4</v>
       </c>
       <c r="H880" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="I880" s="3" t="s">
         <v>3005</v>
-      </c>
-      <c r="I880" s="3" t="s">
-        <v>3006</v>
       </c>
       <c r="J880" s="4"/>
     </row>
     <row r="881">
       <c r="A881" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B881" s="1" t="s">
         <v>3067</v>
-      </c>
-      <c r="B881" s="1" t="s">
-        <v>3068</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>2</v>
@@ -34866,19 +34864,19 @@
         <v>4</v>
       </c>
       <c r="H881" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="I881" s="6" t="s">
         <v>3069</v>
-      </c>
-      <c r="I881" s="6" t="s">
-        <v>3070</v>
       </c>
       <c r="J881" s="4"/>
     </row>
     <row r="882">
       <c r="A882" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B882" s="1" t="s">
         <v>3071</v>
-      </c>
-      <c r="B882" s="1" t="s">
-        <v>3072</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>2</v>
@@ -34902,10 +34900,10 @@
     </row>
     <row r="883">
       <c r="A883" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B883" s="1" t="s">
         <v>3073</v>
-      </c>
-      <c r="B883" s="1" t="s">
-        <v>3074</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>2</v>
@@ -34920,19 +34918,19 @@
         <v>4</v>
       </c>
       <c r="H883" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="I883" s="3" t="s">
         <v>3075</v>
-      </c>
-      <c r="I883" s="3" t="s">
-        <v>3076</v>
       </c>
       <c r="J883" s="4"/>
     </row>
     <row r="884">
       <c r="A884" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B884" s="1" t="s">
         <v>3077</v>
-      </c>
-      <c r="B884" s="1" t="s">
-        <v>3078</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>2</v>
@@ -34956,10 +34954,10 @@
     </row>
     <row r="885">
       <c r="A885" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B885" s="1" t="s">
         <v>3079</v>
-      </c>
-      <c r="B885" s="1" t="s">
-        <v>3080</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>2</v>
@@ -34974,19 +34972,19 @@
         <v>4</v>
       </c>
       <c r="H885" s="2" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="I885" s="2" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="J885" s="4"/>
     </row>
     <row r="886">
       <c r="A886" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B886" s="1" t="s">
         <v>3082</v>
-      </c>
-      <c r="B886" s="1" t="s">
-        <v>3083</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>2</v>
@@ -35010,10 +35008,10 @@
     </row>
     <row r="887">
       <c r="A887" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B887" s="1" t="s">
         <v>3084</v>
-      </c>
-      <c r="B887" s="1" t="s">
-        <v>3085</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>2</v>
@@ -35028,19 +35026,19 @@
         <v>4</v>
       </c>
       <c r="H887" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="I887" s="3" t="s">
         <v>3075</v>
-      </c>
-      <c r="I887" s="3" t="s">
-        <v>3076</v>
       </c>
       <c r="J887" s="4"/>
     </row>
     <row r="888">
       <c r="A888" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B888" s="1" t="s">
         <v>3086</v>
-      </c>
-      <c r="B888" s="1" t="s">
-        <v>3087</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>2</v>
@@ -35055,19 +35053,19 @@
         <v>4</v>
       </c>
       <c r="H888" s="2" t="s">
+        <v>3087</v>
+      </c>
+      <c r="I888" s="5" t="s">
         <v>3088</v>
-      </c>
-      <c r="I888" s="5" t="s">
-        <v>3089</v>
       </c>
       <c r="J888" s="4"/>
     </row>
     <row r="889">
       <c r="A889" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B889" s="1" t="s">
         <v>3090</v>
-      </c>
-      <c r="B889" s="1" t="s">
-        <v>3091</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>2</v>
@@ -35082,19 +35080,19 @@
         <v>4</v>
       </c>
       <c r="H889" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="I889" s="3" t="s">
         <v>3092</v>
-      </c>
-      <c r="I889" s="3" t="s">
-        <v>3093</v>
       </c>
       <c r="J889" s="4"/>
     </row>
     <row r="890">
       <c r="A890" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B890" s="1" t="s">
         <v>3094</v>
-      </c>
-      <c r="B890" s="1" t="s">
-        <v>3095</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>2</v>
@@ -35109,19 +35107,19 @@
         <v>4</v>
       </c>
       <c r="H890" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="I890" s="3" t="s">
         <v>3092</v>
-      </c>
-      <c r="I890" s="3" t="s">
-        <v>3093</v>
       </c>
       <c r="J890" s="4"/>
     </row>
     <row r="891">
       <c r="A891" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B891" s="1" t="s">
         <v>3096</v>
-      </c>
-      <c r="B891" s="1" t="s">
-        <v>3097</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>2</v>
@@ -35136,19 +35134,19 @@
         <v>4</v>
       </c>
       <c r="H891" s="2" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="I891" s="3" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="J891" s="4"/>
     </row>
     <row r="892">
       <c r="A892" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B892" s="1" t="s">
         <v>3099</v>
-      </c>
-      <c r="B892" s="1" t="s">
-        <v>3100</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>2</v>
@@ -35163,19 +35161,19 @@
         <v>4</v>
       </c>
       <c r="H892" s="2" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="I892" s="3" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="J892" s="4"/>
     </row>
     <row r="893">
       <c r="A893" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B893" s="1" t="s">
         <v>3101</v>
-      </c>
-      <c r="B893" s="1" t="s">
-        <v>3102</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>2</v>
@@ -35190,7 +35188,7 @@
         <v>4</v>
       </c>
       <c r="H893" s="2" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="I893" s="3" t="s">
         <v>424</v>
@@ -35199,10 +35197,10 @@
     </row>
     <row r="894">
       <c r="A894" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B894" s="1" t="s">
         <v>3104</v>
-      </c>
-      <c r="B894" s="1" t="s">
-        <v>3105</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>2</v>
@@ -35226,10 +35224,10 @@
     </row>
     <row r="895">
       <c r="A895" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B895" s="1" t="s">
         <v>3106</v>
-      </c>
-      <c r="B895" s="1" t="s">
-        <v>3107</v>
       </c>
       <c r="C895" s="1" t="s">
         <v>2</v>
@@ -35244,19 +35242,19 @@
         <v>8</v>
       </c>
       <c r="H895" s="2" t="s">
+        <v>3107</v>
+      </c>
+      <c r="I895" s="3" t="s">
         <v>3108</v>
-      </c>
-      <c r="I895" s="3" t="s">
-        <v>3109</v>
       </c>
       <c r="J895" s="4"/>
     </row>
     <row r="896">
       <c r="A896" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B896" s="1" t="s">
         <v>3110</v>
-      </c>
-      <c r="B896" s="1" t="s">
-        <v>3111</v>
       </c>
       <c r="C896" s="1" t="s">
         <v>2</v>
@@ -35271,19 +35269,19 @@
         <v>4</v>
       </c>
       <c r="H896" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="I896" s="3" t="s">
         <v>3112</v>
-      </c>
-      <c r="I896" s="3" t="s">
-        <v>3113</v>
       </c>
       <c r="J896" s="4"/>
     </row>
     <row r="897">
       <c r="A897" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B897" s="1" t="s">
         <v>3114</v>
-      </c>
-      <c r="B897" s="1" t="s">
-        <v>3115</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>2</v>
@@ -35298,19 +35296,19 @@
         <v>8</v>
       </c>
       <c r="H897" s="2" t="s">
+        <v>3107</v>
+      </c>
+      <c r="I897" s="3" t="s">
         <v>3108</v>
-      </c>
-      <c r="I897" s="3" t="s">
-        <v>3109</v>
       </c>
       <c r="J897" s="4"/>
     </row>
     <row r="898">
       <c r="A898" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B898" s="1" t="s">
         <v>3116</v>
-      </c>
-      <c r="B898" s="1" t="s">
-        <v>3117</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>2</v>
@@ -35334,10 +35332,10 @@
     </row>
     <row r="899">
       <c r="A899" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B899" s="1" t="s">
         <v>3118</v>
-      </c>
-      <c r="B899" s="1" t="s">
-        <v>3119</v>
       </c>
       <c r="C899" s="1" t="s">
         <v>2</v>
@@ -35361,10 +35359,10 @@
     </row>
     <row r="900">
       <c r="A900" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B900" s="1" t="s">
         <v>3120</v>
-      </c>
-      <c r="B900" s="1" t="s">
-        <v>3121</v>
       </c>
       <c r="C900" s="1" t="s">
         <v>2</v>
@@ -35379,19 +35377,19 @@
         <v>4</v>
       </c>
       <c r="H900" s="2" t="s">
+        <v>3121</v>
+      </c>
+      <c r="I900" s="3" t="s">
         <v>3122</v>
-      </c>
-      <c r="I900" s="3" t="s">
-        <v>3123</v>
       </c>
       <c r="J900" s="4"/>
     </row>
     <row r="901">
       <c r="A901" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B901" s="1" t="s">
         <v>3124</v>
-      </c>
-      <c r="B901" s="1" t="s">
-        <v>3125</v>
       </c>
       <c r="C901" s="1" t="s">
         <v>2</v>
@@ -35406,19 +35404,19 @@
         <v>4</v>
       </c>
       <c r="H901" s="2" t="s">
+        <v>3125</v>
+      </c>
+      <c r="I901" s="3" t="s">
         <v>3126</v>
-      </c>
-      <c r="I901" s="3" t="s">
-        <v>3127</v>
       </c>
       <c r="J901" s="4"/>
     </row>
     <row r="902">
       <c r="A902" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B902" s="1" t="s">
         <v>3128</v>
-      </c>
-      <c r="B902" s="1" t="s">
-        <v>3129</v>
       </c>
       <c r="C902" s="1" t="s">
         <v>2</v>
@@ -35433,19 +35431,19 @@
         <v>4</v>
       </c>
       <c r="H902" s="2" t="s">
+        <v>3129</v>
+      </c>
+      <c r="I902" s="3" t="s">
         <v>3130</v>
-      </c>
-      <c r="I902" s="3" t="s">
-        <v>3131</v>
       </c>
       <c r="J902" s="4"/>
     </row>
     <row r="903">
       <c r="A903" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B903" s="1" t="s">
         <v>3132</v>
-      </c>
-      <c r="B903" s="1" t="s">
-        <v>3133</v>
       </c>
       <c r="C903" s="1" t="s">
         <v>2</v>
@@ -35460,7 +35458,7 @@
         <v>4</v>
       </c>
       <c r="H903" s="2" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="I903" s="3" t="s">
         <v>38</v>
@@ -35469,10 +35467,10 @@
     </row>
     <row r="904">
       <c r="A904" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B904" s="1" t="s">
         <v>3135</v>
-      </c>
-      <c r="B904" s="1" t="s">
-        <v>3136</v>
       </c>
       <c r="C904" s="1" t="s">
         <v>2</v>
@@ -35487,19 +35485,19 @@
         <v>4</v>
       </c>
       <c r="H904" s="2" t="s">
+        <v>3136</v>
+      </c>
+      <c r="I904" s="6" t="s">
         <v>3137</v>
-      </c>
-      <c r="I904" s="6" t="s">
-        <v>3138</v>
       </c>
       <c r="J904" s="4"/>
     </row>
     <row r="905">
       <c r="A905" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B905" s="1" t="s">
         <v>3139</v>
-      </c>
-      <c r="B905" s="1" t="s">
-        <v>3140</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>2</v>
@@ -35514,19 +35512,19 @@
         <v>4</v>
       </c>
       <c r="H905" s="2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="I905" s="6" t="s">
         <v>3141</v>
-      </c>
-      <c r="I905" s="6" t="s">
-        <v>3142</v>
       </c>
       <c r="J905" s="4"/>
     </row>
     <row r="906">
       <c r="A906" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B906" s="1" t="s">
         <v>3143</v>
-      </c>
-      <c r="B906" s="1" t="s">
-        <v>3144</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>2</v>
@@ -35541,19 +35539,19 @@
         <v>4</v>
       </c>
       <c r="H906" s="2" t="s">
+        <v>3144</v>
+      </c>
+      <c r="I906" s="3" t="s">
         <v>3145</v>
-      </c>
-      <c r="I906" s="3" t="s">
-        <v>3146</v>
       </c>
       <c r="J906" s="4"/>
     </row>
     <row r="907">
       <c r="A907" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B907" s="1" t="s">
         <v>3147</v>
-      </c>
-      <c r="B907" s="1" t="s">
-        <v>3148</v>
       </c>
       <c r="C907" s="1" t="s">
         <v>2</v>
@@ -35568,19 +35566,19 @@
         <v>4</v>
       </c>
       <c r="H907" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="I907" s="3" t="s">
         <v>3149</v>
-      </c>
-      <c r="I907" s="3" t="s">
-        <v>3150</v>
       </c>
       <c r="J907" s="4"/>
     </row>
     <row r="908">
       <c r="A908" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B908" s="1" t="s">
         <v>3151</v>
-      </c>
-      <c r="B908" s="1" t="s">
-        <v>3152</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>2</v>
@@ -35595,19 +35593,19 @@
         <v>4</v>
       </c>
       <c r="H908" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="I908" s="3" t="s">
         <v>3153</v>
-      </c>
-      <c r="I908" s="3" t="s">
-        <v>3154</v>
       </c>
       <c r="J908" s="4"/>
     </row>
     <row r="909">
       <c r="A909" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B909" s="1" t="s">
         <v>3155</v>
-      </c>
-      <c r="B909" s="1" t="s">
-        <v>3156</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>2</v>
@@ -35622,19 +35620,19 @@
         <v>4</v>
       </c>
       <c r="H909" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="I909" s="3" t="s">
         <v>3157</v>
-      </c>
-      <c r="I909" s="3" t="s">
-        <v>3158</v>
       </c>
       <c r="J909" s="4"/>
     </row>
     <row r="910">
       <c r="A910" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B910" s="1" t="s">
         <v>3159</v>
-      </c>
-      <c r="B910" s="1" t="s">
-        <v>3160</v>
       </c>
       <c r="C910" s="1" t="s">
         <v>2</v>
@@ -35649,19 +35647,19 @@
         <v>4</v>
       </c>
       <c r="H910" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="I910" s="5" t="s">
         <v>3161</v>
-      </c>
-      <c r="I910" s="5" t="s">
-        <v>3162</v>
       </c>
       <c r="J910" s="4"/>
     </row>
     <row r="911">
       <c r="A911" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B911" s="1" t="s">
         <v>3163</v>
-      </c>
-      <c r="B911" s="1" t="s">
-        <v>3164</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>2</v>
@@ -35676,19 +35674,19 @@
         <v>4</v>
       </c>
       <c r="H911" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="I911" s="5" t="s">
         <v>3161</v>
-      </c>
-      <c r="I911" s="5" t="s">
-        <v>3162</v>
       </c>
       <c r="J911" s="4"/>
     </row>
     <row r="912">
       <c r="A912" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B912" s="1" t="s">
         <v>3165</v>
-      </c>
-      <c r="B912" s="1" t="s">
-        <v>3166</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>2</v>
@@ -35703,19 +35701,19 @@
         <v>4</v>
       </c>
       <c r="H912" s="2" t="s">
+        <v>3166</v>
+      </c>
+      <c r="I912" s="3" t="s">
         <v>3167</v>
-      </c>
-      <c r="I912" s="3" t="s">
-        <v>3168</v>
       </c>
       <c r="J912" s="4"/>
     </row>
     <row r="913">
       <c r="A913" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B913" s="1" t="s">
         <v>3169</v>
-      </c>
-      <c r="B913" s="1" t="s">
-        <v>3170</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>2</v>
@@ -35730,19 +35728,19 @@
         <v>8</v>
       </c>
       <c r="H913" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="I913" s="3" t="s">
         <v>3171</v>
-      </c>
-      <c r="I913" s="3" t="s">
-        <v>3172</v>
       </c>
       <c r="J913" s="4"/>
     </row>
     <row r="914">
       <c r="A914" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B914" s="1" t="s">
         <v>3173</v>
-      </c>
-      <c r="B914" s="1" t="s">
-        <v>3174</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>2</v>
@@ -35766,10 +35764,10 @@
     </row>
     <row r="915">
       <c r="A915" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B915" s="1" t="s">
         <v>3175</v>
-      </c>
-      <c r="B915" s="1" t="s">
-        <v>3176</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>2</v>
@@ -35784,19 +35782,19 @@
         <v>4</v>
       </c>
       <c r="H915" s="2" t="s">
+        <v>3176</v>
+      </c>
+      <c r="I915" s="3" t="s">
         <v>3177</v>
-      </c>
-      <c r="I915" s="3" t="s">
-        <v>3178</v>
       </c>
       <c r="J915" s="4"/>
     </row>
     <row r="916">
       <c r="A916" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B916" s="1" t="s">
         <v>3179</v>
-      </c>
-      <c r="B916" s="1" t="s">
-        <v>3180</v>
       </c>
       <c r="C916" s="1" t="s">
         <v>2</v>
@@ -35811,19 +35809,19 @@
         <v>4</v>
       </c>
       <c r="H916" s="2" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="I916" s="3" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="J916" s="4"/>
     </row>
     <row r="917">
       <c r="A917" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B917" s="1" t="s">
         <v>3181</v>
-      </c>
-      <c r="B917" s="1" t="s">
-        <v>3182</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>2</v>
@@ -35838,19 +35836,19 @@
         <v>4</v>
       </c>
       <c r="H917" s="2" t="s">
+        <v>3182</v>
+      </c>
+      <c r="I917" s="3" t="s">
         <v>3183</v>
-      </c>
-      <c r="I917" s="3" t="s">
-        <v>3184</v>
       </c>
       <c r="J917" s="4"/>
     </row>
     <row r="918">
       <c r="A918" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B918" s="1" t="s">
         <v>3185</v>
-      </c>
-      <c r="B918" s="1" t="s">
-        <v>3186</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>2</v>
@@ -35865,19 +35863,19 @@
         <v>8</v>
       </c>
       <c r="H918" s="2" t="s">
+        <v>3186</v>
+      </c>
+      <c r="I918" s="6" t="s">
         <v>3187</v>
-      </c>
-      <c r="I918" s="6" t="s">
-        <v>3188</v>
       </c>
       <c r="J918" s="4"/>
     </row>
     <row r="919">
       <c r="A919" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B919" s="1" t="s">
         <v>3189</v>
-      </c>
-      <c r="B919" s="1" t="s">
-        <v>3190</v>
       </c>
       <c r="C919" s="1" t="s">
         <v>2</v>
@@ -35892,19 +35890,19 @@
         <v>4</v>
       </c>
       <c r="H919" s="2" t="s">
+        <v>3190</v>
+      </c>
+      <c r="I919" s="6" t="s">
         <v>3191</v>
-      </c>
-      <c r="I919" s="6" t="s">
-        <v>3192</v>
       </c>
       <c r="J919" s="4"/>
     </row>
     <row r="920">
       <c r="A920" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B920" s="1" t="s">
         <v>3193</v>
-      </c>
-      <c r="B920" s="1" t="s">
-        <v>3194</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>2</v>
@@ -35919,19 +35917,19 @@
         <v>4</v>
       </c>
       <c r="H920" s="2" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I920" s="3" t="s">
         <v>3195</v>
-      </c>
-      <c r="I920" s="3" t="s">
-        <v>3196</v>
       </c>
       <c r="J920" s="4"/>
     </row>
     <row r="921">
       <c r="A921" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B921" s="1" t="s">
         <v>3197</v>
-      </c>
-      <c r="B921" s="1" t="s">
-        <v>3198</v>
       </c>
       <c r="C921" s="1" t="s">
         <v>2</v>
@@ -35946,19 +35944,19 @@
         <v>4</v>
       </c>
       <c r="H921" s="2" t="s">
+        <v>3198</v>
+      </c>
+      <c r="I921" s="3" t="s">
         <v>3199</v>
-      </c>
-      <c r="I921" s="3" t="s">
-        <v>3200</v>
       </c>
       <c r="J921" s="4"/>
     </row>
     <row r="922">
       <c r="A922" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B922" s="1" t="s">
         <v>3201</v>
-      </c>
-      <c r="B922" s="1" t="s">
-        <v>3202</v>
       </c>
       <c r="C922" s="1" t="s">
         <v>2</v>
@@ -35973,19 +35971,19 @@
         <v>8</v>
       </c>
       <c r="H922" s="2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="I922" s="3" t="s">
         <v>3203</v>
-      </c>
-      <c r="I922" s="3" t="s">
-        <v>3204</v>
       </c>
       <c r="J922" s="4"/>
     </row>
     <row r="923">
       <c r="A923" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B923" s="1" t="s">
         <v>3205</v>
-      </c>
-      <c r="B923" s="1" t="s">
-        <v>3206</v>
       </c>
       <c r="C923" s="1" t="s">
         <v>2</v>
@@ -36000,19 +35998,19 @@
         <v>4</v>
       </c>
       <c r="H923" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="I923" s="3" t="s">
         <v>3207</v>
-      </c>
-      <c r="I923" s="3" t="s">
-        <v>3208</v>
       </c>
       <c r="J923" s="4"/>
     </row>
     <row r="924">
       <c r="A924" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B924" s="1" t="s">
         <v>3209</v>
-      </c>
-      <c r="B924" s="1" t="s">
-        <v>3210</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>2</v>
@@ -36036,10 +36034,10 @@
     </row>
     <row r="925">
       <c r="A925" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B925" s="1" t="s">
         <v>3211</v>
-      </c>
-      <c r="B925" s="1" t="s">
-        <v>3212</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>2</v>
@@ -36063,10 +36061,10 @@
     </row>
     <row r="926">
       <c r="A926" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B926" s="1" t="s">
         <v>3213</v>
-      </c>
-      <c r="B926" s="1" t="s">
-        <v>3214</v>
       </c>
       <c r="C926" s="1" t="s">
         <v>2</v>
@@ -36081,19 +36079,19 @@
         <v>4</v>
       </c>
       <c r="H926" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="I926" s="3" t="s">
         <v>3207</v>
-      </c>
-      <c r="I926" s="3" t="s">
-        <v>3208</v>
       </c>
       <c r="J926" s="4"/>
     </row>
     <row r="927">
       <c r="A927" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B927" s="1" t="s">
         <v>3215</v>
-      </c>
-      <c r="B927" s="1" t="s">
-        <v>3216</v>
       </c>
       <c r="C927" s="1" t="s">
         <v>2</v>
@@ -36117,10 +36115,10 @@
     </row>
     <row r="928">
       <c r="A928" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B928" s="1" t="s">
         <v>3217</v>
-      </c>
-      <c r="B928" s="1" t="s">
-        <v>3218</v>
       </c>
       <c r="C928" s="1" t="s">
         <v>2</v>
@@ -36144,10 +36142,10 @@
     </row>
     <row r="929">
       <c r="A929" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B929" s="1" t="s">
         <v>3219</v>
-      </c>
-      <c r="B929" s="1" t="s">
-        <v>3220</v>
       </c>
       <c r="C929" s="1" t="s">
         <v>2</v>
@@ -36171,10 +36169,10 @@
     </row>
     <row r="930">
       <c r="A930" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B930" s="1" t="s">
         <v>3221</v>
-      </c>
-      <c r="B930" s="1" t="s">
-        <v>3222</v>
       </c>
       <c r="C930" s="1" t="s">
         <v>2</v>
@@ -36189,19 +36187,19 @@
         <v>4</v>
       </c>
       <c r="H930" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="I930" s="3" t="s">
         <v>3223</v>
-      </c>
-      <c r="I930" s="3" t="s">
-        <v>3224</v>
       </c>
       <c r="J930" s="4"/>
     </row>
     <row r="931">
       <c r="A931" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B931" s="1" t="s">
         <v>3225</v>
-      </c>
-      <c r="B931" s="1" t="s">
-        <v>3226</v>
       </c>
       <c r="C931" s="1" t="s">
         <v>2</v>
@@ -36225,10 +36223,10 @@
     </row>
     <row r="932">
       <c r="A932" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B932" s="1" t="s">
         <v>3227</v>
-      </c>
-      <c r="B932" s="1" t="s">
-        <v>3228</v>
       </c>
       <c r="C932" s="1" t="s">
         <v>2</v>
@@ -36252,10 +36250,10 @@
     </row>
     <row r="933">
       <c r="A933" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B933" s="1" t="s">
         <v>3229</v>
-      </c>
-      <c r="B933" s="1" t="s">
-        <v>3230</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>2</v>
@@ -36279,10 +36277,10 @@
     </row>
     <row r="934">
       <c r="A934" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B934" s="1" t="s">
         <v>3231</v>
-      </c>
-      <c r="B934" s="1" t="s">
-        <v>3232</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>2</v>
@@ -36306,10 +36304,10 @@
     </row>
     <row r="935">
       <c r="A935" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B935" s="1" t="s">
         <v>3233</v>
-      </c>
-      <c r="B935" s="1" t="s">
-        <v>3234</v>
       </c>
       <c r="C935" s="1" t="s">
         <v>2</v>
@@ -36333,10 +36331,10 @@
     </row>
     <row r="936">
       <c r="A936" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B936" s="1" t="s">
         <v>3235</v>
-      </c>
-      <c r="B936" s="1" t="s">
-        <v>3236</v>
       </c>
       <c r="C936" s="1" t="s">
         <v>2</v>
@@ -36360,10 +36358,10 @@
     </row>
     <row r="937">
       <c r="A937" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B937" s="1" t="s">
         <v>3237</v>
-      </c>
-      <c r="B937" s="1" t="s">
-        <v>3238</v>
       </c>
       <c r="C937" s="1" t="s">
         <v>2</v>
@@ -36387,10 +36385,10 @@
     </row>
     <row r="938">
       <c r="A938" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B938" s="1" t="s">
         <v>3239</v>
-      </c>
-      <c r="B938" s="1" t="s">
-        <v>3240</v>
       </c>
       <c r="C938" s="1" t="s">
         <v>2</v>
@@ -36405,19 +36403,19 @@
         <v>4</v>
       </c>
       <c r="H938" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="I938" s="3" t="s">
         <v>3241</v>
-      </c>
-      <c r="I938" s="3" t="s">
-        <v>3242</v>
       </c>
       <c r="J938" s="4"/>
     </row>
     <row r="939">
       <c r="A939" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B939" s="1" t="s">
         <v>3243</v>
-      </c>
-      <c r="B939" s="1" t="s">
-        <v>3244</v>
       </c>
       <c r="C939" s="1" t="s">
         <v>2</v>
@@ -36432,19 +36430,19 @@
         <v>220</v>
       </c>
       <c r="H939" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="I939" s="3" t="s">
         <v>3245</v>
-      </c>
-      <c r="I939" s="3" t="s">
-        <v>3246</v>
       </c>
       <c r="J939" s="4"/>
     </row>
     <row r="940">
       <c r="A940" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B940" s="1" t="s">
         <v>3247</v>
-      </c>
-      <c r="B940" s="1" t="s">
-        <v>3248</v>
       </c>
       <c r="C940" s="1" t="s">
         <v>2</v>
@@ -36459,19 +36457,19 @@
         <v>4</v>
       </c>
       <c r="H940" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I940" s="3" t="s">
         <v>3249</v>
-      </c>
-      <c r="I940" s="3" t="s">
-        <v>3250</v>
       </c>
       <c r="J940" s="4"/>
     </row>
     <row r="941">
       <c r="A941" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B941" s="1" t="s">
         <v>3251</v>
-      </c>
-      <c r="B941" s="1" t="s">
-        <v>3252</v>
       </c>
       <c r="C941" s="1" t="s">
         <v>2</v>
@@ -36486,19 +36484,19 @@
         <v>4</v>
       </c>
       <c r="H941" s="2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I941" s="3" t="s">
         <v>3253</v>
-      </c>
-      <c r="I941" s="3" t="s">
-        <v>3254</v>
       </c>
       <c r="J941" s="4"/>
     </row>
     <row r="942">
       <c r="A942" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B942" s="1" t="s">
         <v>3255</v>
-      </c>
-      <c r="B942" s="1" t="s">
-        <v>3256</v>
       </c>
       <c r="C942" s="1" t="s">
         <v>2</v>
@@ -36513,19 +36511,19 @@
         <v>220</v>
       </c>
       <c r="H942" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="I942" s="3" t="s">
         <v>3257</v>
-      </c>
-      <c r="I942" s="3" t="s">
-        <v>3258</v>
       </c>
       <c r="J942" s="4"/>
     </row>
     <row r="943">
       <c r="A943" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B943" s="1" t="s">
         <v>3259</v>
-      </c>
-      <c r="B943" s="1" t="s">
-        <v>3260</v>
       </c>
       <c r="C943" s="1" t="s">
         <v>2</v>
@@ -36540,19 +36538,19 @@
         <v>4</v>
       </c>
       <c r="H943" s="2" t="s">
+        <v>3260</v>
+      </c>
+      <c r="I943" s="3" t="s">
         <v>3261</v>
-      </c>
-      <c r="I943" s="3" t="s">
-        <v>3262</v>
       </c>
       <c r="J943" s="4"/>
     </row>
     <row r="944">
       <c r="A944" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B944" s="1" t="s">
         <v>3263</v>
-      </c>
-      <c r="B944" s="1" t="s">
-        <v>3264</v>
       </c>
       <c r="C944" s="1" t="s">
         <v>2</v>
@@ -36567,19 +36565,19 @@
         <v>4</v>
       </c>
       <c r="H944" s="2" t="s">
+        <v>3264</v>
+      </c>
+      <c r="I944" s="3" t="s">
         <v>3265</v>
-      </c>
-      <c r="I944" s="3" t="s">
-        <v>3266</v>
       </c>
       <c r="J944" s="4"/>
     </row>
     <row r="945">
       <c r="A945" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B945" s="1" t="s">
         <v>3267</v>
-      </c>
-      <c r="B945" s="1" t="s">
-        <v>3268</v>
       </c>
       <c r="C945" s="1" t="s">
         <v>2</v>
@@ -36594,19 +36592,19 @@
         <v>4</v>
       </c>
       <c r="H945" s="2" t="s">
+        <v>3268</v>
+      </c>
+      <c r="I945" s="3" t="s">
         <v>3269</v>
-      </c>
-      <c r="I945" s="3" t="s">
-        <v>3270</v>
       </c>
       <c r="J945" s="4"/>
     </row>
     <row r="946">
       <c r="A946" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B946" s="1" t="s">
         <v>3271</v>
-      </c>
-      <c r="B946" s="1" t="s">
-        <v>3272</v>
       </c>
       <c r="C946" s="1" t="s">
         <v>2</v>
@@ -36621,7 +36619,7 @@
         <v>4</v>
       </c>
       <c r="H946" s="2" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="I946" s="6" t="s">
         <v>2650</v>
@@ -36630,10 +36628,10 @@
     </row>
     <row r="947">
       <c r="A947" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B947" s="1" t="s">
         <v>3274</v>
-      </c>
-      <c r="B947" s="1" t="s">
-        <v>3275</v>
       </c>
       <c r="C947" s="1" t="s">
         <v>2</v>
@@ -36648,7 +36646,7 @@
         <v>4</v>
       </c>
       <c r="H947" s="2" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="I947" s="6" t="s">
         <v>2650</v>
@@ -36657,10 +36655,10 @@
     </row>
     <row r="948">
       <c r="A948" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B948" s="1" t="s">
         <v>3277</v>
-      </c>
-      <c r="B948" s="1" t="s">
-        <v>3278</v>
       </c>
       <c r="C948" s="1" t="s">
         <v>2</v>
@@ -36675,7 +36673,7 @@
         <v>4</v>
       </c>
       <c r="H948" s="2" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="I948" s="6" t="s">
         <v>366</v>
@@ -36684,10 +36682,10 @@
     </row>
     <row r="949">
       <c r="A949" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B949" s="1" t="s">
         <v>3280</v>
-      </c>
-      <c r="B949" s="1" t="s">
-        <v>3281</v>
       </c>
       <c r="C949" s="1" t="s">
         <v>2</v>
@@ -36702,19 +36700,19 @@
         <v>4</v>
       </c>
       <c r="H949" s="2" t="s">
+        <v>3281</v>
+      </c>
+      <c r="I949" s="3" t="s">
         <v>3282</v>
-      </c>
-      <c r="I949" s="3" t="s">
-        <v>3283</v>
       </c>
       <c r="J949" s="4"/>
     </row>
     <row r="950">
       <c r="A950" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B950" s="1" t="s">
         <v>3284</v>
-      </c>
-      <c r="B950" s="1" t="s">
-        <v>3285</v>
       </c>
       <c r="C950" s="1" t="s">
         <v>2</v>
@@ -36729,19 +36727,19 @@
         <v>4</v>
       </c>
       <c r="H950" s="2" t="s">
+        <v>3285</v>
+      </c>
+      <c r="I950" s="3" t="s">
         <v>3286</v>
-      </c>
-      <c r="I950" s="3" t="s">
-        <v>3287</v>
       </c>
       <c r="J950" s="4"/>
     </row>
     <row r="951">
       <c r="A951" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B951" s="1" t="s">
         <v>3288</v>
-      </c>
-      <c r="B951" s="1" t="s">
-        <v>3289</v>
       </c>
       <c r="C951" s="1" t="s">
         <v>2</v>
@@ -36756,19 +36754,19 @@
         <v>4</v>
       </c>
       <c r="H951" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I951" s="3" t="s">
         <v>3290</v>
-      </c>
-      <c r="I951" s="3" t="s">
-        <v>3291</v>
       </c>
       <c r="J951" s="4"/>
     </row>
     <row r="952">
       <c r="A952" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B952" s="1" t="s">
         <v>3292</v>
-      </c>
-      <c r="B952" s="1" t="s">
-        <v>3293</v>
       </c>
       <c r="C952" s="1" t="s">
         <v>2</v>
@@ -36783,7 +36781,7 @@
         <v>4</v>
       </c>
       <c r="H952" s="2" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="I952" s="3" t="s">
         <v>2650</v>
@@ -36792,10 +36790,10 @@
     </row>
     <row r="953">
       <c r="A953" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B953" s="1" t="s">
         <v>3295</v>
-      </c>
-      <c r="B953" s="1" t="s">
-        <v>3296</v>
       </c>
       <c r="C953" s="1" t="s">
         <v>2</v>
@@ -36810,19 +36808,19 @@
         <v>4</v>
       </c>
       <c r="H953" s="2" t="s">
+        <v>3296</v>
+      </c>
+      <c r="I953" s="3" t="s">
         <v>3297</v>
-      </c>
-      <c r="I953" s="3" t="s">
-        <v>3298</v>
       </c>
       <c r="J953" s="4"/>
     </row>
     <row r="954">
       <c r="A954" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B954" s="1" t="s">
         <v>3299</v>
-      </c>
-      <c r="B954" s="1" t="s">
-        <v>3300</v>
       </c>
       <c r="C954" s="1" t="s">
         <v>2</v>
@@ -36837,19 +36835,19 @@
         <v>4</v>
       </c>
       <c r="H954" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="I954" s="3" t="s">
         <v>3301</v>
-      </c>
-      <c r="I954" s="3" t="s">
-        <v>3302</v>
       </c>
       <c r="J954" s="4"/>
     </row>
     <row r="955">
       <c r="A955" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B955" s="1" t="s">
         <v>3303</v>
-      </c>
-      <c r="B955" s="1" t="s">
-        <v>3304</v>
       </c>
       <c r="C955" s="1" t="s">
         <v>2</v>
@@ -36864,19 +36862,19 @@
         <v>4</v>
       </c>
       <c r="H955" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="I955" s="3" t="s">
         <v>3305</v>
-      </c>
-      <c r="I955" s="3" t="s">
-        <v>3306</v>
       </c>
       <c r="J955" s="4"/>
     </row>
     <row r="956">
       <c r="A956" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B956" s="1" t="s">
         <v>3307</v>
-      </c>
-      <c r="B956" s="1" t="s">
-        <v>3308</v>
       </c>
       <c r="C956" s="1" t="s">
         <v>2</v>
@@ -36891,19 +36889,19 @@
         <v>4</v>
       </c>
       <c r="H956" s="2" t="s">
+        <v>3308</v>
+      </c>
+      <c r="I956" s="3" t="s">
         <v>3309</v>
-      </c>
-      <c r="I956" s="3" t="s">
-        <v>3310</v>
       </c>
       <c r="J956" s="4"/>
     </row>
     <row r="957">
       <c r="A957" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B957" s="1" t="s">
         <v>3311</v>
-      </c>
-      <c r="B957" s="1" t="s">
-        <v>3312</v>
       </c>
       <c r="C957" s="1" t="s">
         <v>2</v>
@@ -36918,19 +36916,19 @@
         <v>4</v>
       </c>
       <c r="H957" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="I957" s="3" t="s">
         <v>3313</v>
-      </c>
-      <c r="I957" s="3" t="s">
-        <v>3314</v>
       </c>
       <c r="J957" s="4"/>
     </row>
     <row r="958">
       <c r="A958" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B958" s="1" t="s">
         <v>3315</v>
-      </c>
-      <c r="B958" s="1" t="s">
-        <v>3316</v>
       </c>
       <c r="C958" s="1" t="s">
         <v>2</v>
@@ -36945,19 +36943,19 @@
         <v>4</v>
       </c>
       <c r="H958" s="2" t="s">
+        <v>3316</v>
+      </c>
+      <c r="I958" s="3" t="s">
         <v>3317</v>
-      </c>
-      <c r="I958" s="3" t="s">
-        <v>3318</v>
       </c>
       <c r="J958" s="4"/>
     </row>
     <row r="959">
       <c r="A959" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B959" s="1" t="s">
         <v>3319</v>
-      </c>
-      <c r="B959" s="1" t="s">
-        <v>3320</v>
       </c>
       <c r="C959" s="1" t="s">
         <v>2</v>
@@ -36972,19 +36970,19 @@
         <v>4</v>
       </c>
       <c r="H959" s="2" t="s">
+        <v>3320</v>
+      </c>
+      <c r="I959" s="3" t="s">
         <v>3321</v>
-      </c>
-      <c r="I959" s="3" t="s">
-        <v>3322</v>
       </c>
       <c r="J959" s="4"/>
     </row>
     <row r="960">
       <c r="A960" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B960" s="1" t="s">
         <v>3323</v>
-      </c>
-      <c r="B960" s="1" t="s">
-        <v>3324</v>
       </c>
       <c r="C960" s="1" t="s">
         <v>2</v>
@@ -36999,19 +36997,19 @@
         <v>4</v>
       </c>
       <c r="H960" s="2" t="s">
+        <v>3324</v>
+      </c>
+      <c r="I960" s="3" t="s">
         <v>3325</v>
-      </c>
-      <c r="I960" s="3" t="s">
-        <v>3326</v>
       </c>
       <c r="J960" s="4"/>
     </row>
     <row r="961">
       <c r="A961" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B961" s="1" t="s">
         <v>3327</v>
-      </c>
-      <c r="B961" s="1" t="s">
-        <v>3328</v>
       </c>
       <c r="C961" s="1" t="s">
         <v>2</v>
@@ -37026,19 +37024,19 @@
         <v>4</v>
       </c>
       <c r="H961" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="I961" s="3" t="s">
         <v>3329</v>
-      </c>
-      <c r="I961" s="3" t="s">
-        <v>3330</v>
       </c>
       <c r="J961" s="4"/>
     </row>
     <row r="962">
       <c r="A962" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B962" s="1" t="s">
         <v>3331</v>
-      </c>
-      <c r="B962" s="1" t="s">
-        <v>3332</v>
       </c>
       <c r="C962" s="1" t="s">
         <v>2</v>
@@ -37053,19 +37051,19 @@
         <v>4</v>
       </c>
       <c r="H962" s="2" t="s">
+        <v>3332</v>
+      </c>
+      <c r="I962" s="3" t="s">
         <v>3333</v>
-      </c>
-      <c r="I962" s="3" t="s">
-        <v>3334</v>
       </c>
       <c r="J962" s="4"/>
     </row>
     <row r="963">
       <c r="A963" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B963" s="1" t="s">
         <v>3335</v>
-      </c>
-      <c r="B963" s="1" t="s">
-        <v>3336</v>
       </c>
       <c r="C963" s="1" t="s">
         <v>2</v>
@@ -37080,19 +37078,19 @@
         <v>4</v>
       </c>
       <c r="H963" s="2" t="s">
+        <v>3336</v>
+      </c>
+      <c r="I963" s="3" t="s">
         <v>3337</v>
-      </c>
-      <c r="I963" s="3" t="s">
-        <v>3338</v>
       </c>
       <c r="J963" s="4"/>
     </row>
     <row r="964">
       <c r="A964" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B964" s="1" t="s">
         <v>3339</v>
-      </c>
-      <c r="B964" s="1" t="s">
-        <v>3340</v>
       </c>
       <c r="C964" s="1" t="s">
         <v>2</v>
@@ -37107,19 +37105,19 @@
         <v>4</v>
       </c>
       <c r="H964" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="I964" s="3" t="s">
         <v>3341</v>
-      </c>
-      <c r="I964" s="3" t="s">
-        <v>3342</v>
       </c>
       <c r="J964" s="4"/>
     </row>
     <row r="965">
       <c r="A965" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B965" s="1" t="s">
         <v>3343</v>
-      </c>
-      <c r="B965" s="1" t="s">
-        <v>3344</v>
       </c>
       <c r="C965" s="1" t="s">
         <v>2</v>
@@ -37143,10 +37141,10 @@
     </row>
     <row r="966">
       <c r="A966" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B966" s="1" t="s">
         <v>3345</v>
-      </c>
-      <c r="B966" s="1" t="s">
-        <v>3346</v>
       </c>
       <c r="C966" s="1" t="s">
         <v>2</v>
@@ -37161,19 +37159,19 @@
         <v>4</v>
       </c>
       <c r="H966" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I966" s="6" t="s">
         <v>3347</v>
-      </c>
-      <c r="I966" s="6" t="s">
-        <v>3348</v>
       </c>
       <c r="J966" s="4"/>
     </row>
     <row r="967">
       <c r="A967" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B967" s="1" t="s">
         <v>3349</v>
-      </c>
-      <c r="B967" s="1" t="s">
-        <v>3350</v>
       </c>
       <c r="C967" s="1" t="s">
         <v>2</v>
@@ -37197,10 +37195,10 @@
     </row>
     <row r="968">
       <c r="A968" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B968" s="1" t="s">
         <v>3351</v>
-      </c>
-      <c r="B968" s="1" t="s">
-        <v>3352</v>
       </c>
       <c r="C968" s="1" t="s">
         <v>2</v>
@@ -37215,19 +37213,19 @@
         <v>4</v>
       </c>
       <c r="H968" s="2" t="s">
+        <v>3352</v>
+      </c>
+      <c r="I968" s="3" t="s">
         <v>3353</v>
-      </c>
-      <c r="I968" s="3" t="s">
-        <v>3354</v>
       </c>
       <c r="J968" s="4"/>
     </row>
     <row r="969">
       <c r="A969" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B969" s="1" t="s">
         <v>3355</v>
-      </c>
-      <c r="B969" s="1" t="s">
-        <v>3356</v>
       </c>
       <c r="C969" s="1" t="s">
         <v>2</v>
@@ -37242,19 +37240,19 @@
         <v>4</v>
       </c>
       <c r="H969" s="2" t="s">
+        <v>3356</v>
+      </c>
+      <c r="I969" s="3" t="s">
         <v>3357</v>
-      </c>
-      <c r="I969" s="3" t="s">
-        <v>3358</v>
       </c>
       <c r="J969" s="4"/>
     </row>
     <row r="970">
       <c r="A970" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B970" s="1" t="s">
         <v>3359</v>
-      </c>
-      <c r="B970" s="1" t="s">
-        <v>3360</v>
       </c>
       <c r="C970" s="1" t="s">
         <v>2</v>
@@ -37269,19 +37267,19 @@
         <v>4</v>
       </c>
       <c r="H970" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="I970" s="3" t="s">
         <v>3361</v>
-      </c>
-      <c r="I970" s="3" t="s">
-        <v>3362</v>
       </c>
       <c r="J970" s="4"/>
     </row>
     <row r="971">
       <c r="A971" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B971" s="1" t="s">
         <v>3363</v>
-      </c>
-      <c r="B971" s="1" t="s">
-        <v>3364</v>
       </c>
       <c r="C971" s="1" t="s">
         <v>2</v>
@@ -37296,19 +37294,19 @@
         <v>4</v>
       </c>
       <c r="H971" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I971" s="3" t="s">
         <v>3365</v>
-      </c>
-      <c r="I971" s="3" t="s">
-        <v>3366</v>
       </c>
       <c r="J971" s="4"/>
     </row>
     <row r="972">
       <c r="A972" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B972" s="1" t="s">
         <v>3367</v>
-      </c>
-      <c r="B972" s="1" t="s">
-        <v>3368</v>
       </c>
       <c r="C972" s="1" t="s">
         <v>2</v>
@@ -37323,19 +37321,19 @@
         <v>4</v>
       </c>
       <c r="H972" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="I972" s="3" t="s">
         <v>3369</v>
-      </c>
-      <c r="I972" s="3" t="s">
-        <v>3370</v>
       </c>
       <c r="J972" s="4"/>
     </row>
     <row r="973">
       <c r="A973" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B973" s="1" t="s">
         <v>3371</v>
-      </c>
-      <c r="B973" s="1" t="s">
-        <v>3372</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>2</v>
@@ -37350,19 +37348,19 @@
         <v>4</v>
       </c>
       <c r="H973" s="2" t="s">
+        <v>3372</v>
+      </c>
+      <c r="I973" s="3" t="s">
         <v>3373</v>
-      </c>
-      <c r="I973" s="3" t="s">
-        <v>3374</v>
       </c>
       <c r="J973" s="4"/>
     </row>
     <row r="974">
       <c r="A974" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B974" s="1" t="s">
         <v>3375</v>
-      </c>
-      <c r="B974" s="1" t="s">
-        <v>3376</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>2</v>
@@ -37377,19 +37375,19 @@
         <v>4</v>
       </c>
       <c r="H974" s="2" t="s">
+        <v>3376</v>
+      </c>
+      <c r="I974" s="3" t="s">
         <v>3377</v>
-      </c>
-      <c r="I974" s="3" t="s">
-        <v>3378</v>
       </c>
       <c r="J974" s="4"/>
     </row>
     <row r="975">
       <c r="A975" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B975" s="1" t="s">
         <v>3379</v>
-      </c>
-      <c r="B975" s="1" t="s">
-        <v>3380</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>2</v>
@@ -37404,19 +37402,19 @@
         <v>4</v>
       </c>
       <c r="H975" s="2" t="s">
+        <v>3380</v>
+      </c>
+      <c r="I975" s="3" t="s">
         <v>3381</v>
-      </c>
-      <c r="I975" s="3" t="s">
-        <v>3382</v>
       </c>
       <c r="J975" s="4"/>
     </row>
     <row r="976">
       <c r="A976" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B976" s="1" t="s">
         <v>3383</v>
-      </c>
-      <c r="B976" s="1" t="s">
-        <v>3384</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>2</v>
@@ -37440,10 +37438,10 @@
     </row>
     <row r="977">
       <c r="A977" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B977" s="1" t="s">
         <v>3385</v>
-      </c>
-      <c r="B977" s="1" t="s">
-        <v>3386</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>2</v>
@@ -37458,19 +37456,19 @@
         <v>4</v>
       </c>
       <c r="H977" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="I977" s="3" t="s">
         <v>3387</v>
-      </c>
-      <c r="I977" s="3" t="s">
-        <v>3388</v>
       </c>
       <c r="J977" s="4"/>
     </row>
     <row r="978">
       <c r="A978" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B978" s="1" t="s">
         <v>3389</v>
-      </c>
-      <c r="B978" s="1" t="s">
-        <v>3390</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>2</v>
@@ -37485,19 +37483,19 @@
         <v>4</v>
       </c>
       <c r="H978" s="2" t="s">
+        <v>3390</v>
+      </c>
+      <c r="I978" s="3" t="s">
         <v>3391</v>
-      </c>
-      <c r="I978" s="3" t="s">
-        <v>3392</v>
       </c>
       <c r="J978" s="4"/>
     </row>
     <row r="979">
       <c r="A979" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B979" s="1" t="s">
         <v>3393</v>
-      </c>
-      <c r="B979" s="1" t="s">
-        <v>3394</v>
       </c>
       <c r="C979" s="1" t="s">
         <v>2</v>
@@ -37512,19 +37510,19 @@
         <v>4</v>
       </c>
       <c r="H979" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="I979" s="3" t="s">
         <v>3395</v>
-      </c>
-      <c r="I979" s="3" t="s">
-        <v>3396</v>
       </c>
       <c r="J979" s="4"/>
     </row>
     <row r="980">
       <c r="A980" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B980" s="1" t="s">
         <v>3397</v>
-      </c>
-      <c r="B980" s="1" t="s">
-        <v>3398</v>
       </c>
       <c r="C980" s="1" t="s">
         <v>2</v>
@@ -37539,19 +37537,19 @@
         <v>4</v>
       </c>
       <c r="H980" s="2" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I980" s="3" t="s">
         <v>3399</v>
-      </c>
-      <c r="I980" s="3" t="s">
-        <v>3400</v>
       </c>
       <c r="J980" s="4"/>
     </row>
     <row r="981">
       <c r="A981" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B981" s="1" t="s">
         <v>3401</v>
-      </c>
-      <c r="B981" s="1" t="s">
-        <v>3402</v>
       </c>
       <c r="C981" s="1" t="s">
         <v>2</v>
@@ -37575,10 +37573,10 @@
     </row>
     <row r="982">
       <c r="A982" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B982" s="1" t="s">
         <v>3403</v>
-      </c>
-      <c r="B982" s="1" t="s">
-        <v>3404</v>
       </c>
       <c r="C982" s="1" t="s">
         <v>2</v>
@@ -37593,19 +37591,19 @@
         <v>4</v>
       </c>
       <c r="H982" s="2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="I982" s="3" t="s">
         <v>3405</v>
-      </c>
-      <c r="I982" s="3" t="s">
-        <v>3406</v>
       </c>
       <c r="J982" s="4"/>
     </row>
     <row r="983">
       <c r="A983" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B983" s="1" t="s">
         <v>3407</v>
-      </c>
-      <c r="B983" s="1" t="s">
-        <v>3408</v>
       </c>
       <c r="C983" s="1" t="s">
         <v>2</v>
@@ -37629,10 +37627,10 @@
     </row>
     <row r="984">
       <c r="A984" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B984" s="1" t="s">
         <v>3409</v>
-      </c>
-      <c r="B984" s="1" t="s">
-        <v>3410</v>
       </c>
       <c r="C984" s="1" t="s">
         <v>2</v>
@@ -37647,19 +37645,19 @@
         <v>4</v>
       </c>
       <c r="H984" s="2" t="s">
+        <v>3410</v>
+      </c>
+      <c r="I984" s="3" t="s">
         <v>3411</v>
-      </c>
-      <c r="I984" s="3" t="s">
-        <v>3412</v>
       </c>
       <c r="J984" s="4"/>
     </row>
     <row r="985">
       <c r="A985" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B985" s="1" t="s">
         <v>3413</v>
-      </c>
-      <c r="B985" s="1" t="s">
-        <v>3414</v>
       </c>
       <c r="C985" s="1" t="s">
         <v>2</v>
@@ -37674,19 +37672,19 @@
         <v>8</v>
       </c>
       <c r="H985" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="I985" s="3" t="s">
         <v>3415</v>
-      </c>
-      <c r="I985" s="3" t="s">
-        <v>3416</v>
       </c>
       <c r="J985" s="4"/>
     </row>
     <row r="986">
       <c r="A986" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B986" s="1" t="s">
         <v>3417</v>
-      </c>
-      <c r="B986" s="1" t="s">
-        <v>3418</v>
       </c>
       <c r="C986" s="1" t="s">
         <v>2</v>
@@ -37710,10 +37708,10 @@
     </row>
     <row r="987">
       <c r="A987" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B987" s="1" t="s">
         <v>3419</v>
-      </c>
-      <c r="B987" s="1" t="s">
-        <v>3420</v>
       </c>
       <c r="C987" s="1" t="s">
         <v>2</v>
@@ -37728,19 +37726,19 @@
         <v>4</v>
       </c>
       <c r="H987" s="2" t="s">
+        <v>3420</v>
+      </c>
+      <c r="I987" s="3" t="s">
         <v>3421</v>
-      </c>
-      <c r="I987" s="3" t="s">
-        <v>3422</v>
       </c>
       <c r="J987" s="4"/>
     </row>
     <row r="988">
       <c r="A988" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B988" s="1" t="s">
         <v>3423</v>
-      </c>
-      <c r="B988" s="1" t="s">
-        <v>3424</v>
       </c>
       <c r="C988" s="1" t="s">
         <v>2</v>
@@ -37764,10 +37762,10 @@
     </row>
     <row r="989">
       <c r="A989" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B989" s="1" t="s">
         <v>3425</v>
-      </c>
-      <c r="B989" s="1" t="s">
-        <v>3426</v>
       </c>
       <c r="C989" s="1" t="s">
         <v>2</v>
@@ -37782,19 +37780,19 @@
         <v>4</v>
       </c>
       <c r="H989" s="2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="I989" s="3" t="s">
         <v>3427</v>
-      </c>
-      <c r="I989" s="3" t="s">
-        <v>3428</v>
       </c>
       <c r="J989" s="4"/>
     </row>
     <row r="990">
       <c r="A990" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B990" s="1" t="s">
         <v>3429</v>
-      </c>
-      <c r="B990" s="1" t="s">
-        <v>3430</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>2</v>
@@ -37818,10 +37816,10 @@
     </row>
     <row r="991">
       <c r="A991" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B991" s="1" t="s">
         <v>3431</v>
-      </c>
-      <c r="B991" s="1" t="s">
-        <v>3432</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>2</v>
@@ -37845,10 +37843,10 @@
     </row>
     <row r="992">
       <c r="A992" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B992" s="1" t="s">
         <v>3433</v>
-      </c>
-      <c r="B992" s="1" t="s">
-        <v>3434</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>2</v>
@@ -37872,10 +37870,10 @@
     </row>
     <row r="993">
       <c r="A993" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B993" s="1" t="s">
         <v>3435</v>
-      </c>
-      <c r="B993" s="1" t="s">
-        <v>3436</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>2</v>
@@ -37890,19 +37888,19 @@
         <v>4</v>
       </c>
       <c r="H993" s="2" t="s">
+        <v>3436</v>
+      </c>
+      <c r="I993" s="3" t="s">
         <v>3437</v>
-      </c>
-      <c r="I993" s="3" t="s">
-        <v>3438</v>
       </c>
       <c r="J993" s="4"/>
     </row>
     <row r="994">
       <c r="A994" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B994" s="1" t="s">
         <v>3439</v>
-      </c>
-      <c r="B994" s="1" t="s">
-        <v>3440</v>
       </c>
       <c r="C994" s="1" t="s">
         <v>2</v>
@@ -37917,19 +37915,19 @@
         <v>4</v>
       </c>
       <c r="H994" s="2" t="s">
+        <v>3440</v>
+      </c>
+      <c r="I994" s="3" t="s">
         <v>3441</v>
-      </c>
-      <c r="I994" s="3" t="s">
-        <v>3442</v>
       </c>
       <c r="J994" s="4"/>
     </row>
     <row r="995">
       <c r="A995" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B995" s="1" t="s">
         <v>3443</v>
-      </c>
-      <c r="B995" s="1" t="s">
-        <v>3444</v>
       </c>
       <c r="C995" s="1" t="s">
         <v>2</v>
@@ -37953,10 +37951,10 @@
     </row>
     <row r="996">
       <c r="A996" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B996" s="1" t="s">
         <v>3445</v>
-      </c>
-      <c r="B996" s="1" t="s">
-        <v>3446</v>
       </c>
       <c r="C996" s="1" t="s">
         <v>2</v>
@@ -37980,10 +37978,10 @@
     </row>
     <row r="997">
       <c r="A997" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B997" s="1" t="s">
         <v>3447</v>
-      </c>
-      <c r="B997" s="1" t="s">
-        <v>3448</v>
       </c>
       <c r="C997" s="1" t="s">
         <v>2</v>
@@ -37998,19 +37996,19 @@
         <v>4</v>
       </c>
       <c r="H997" s="2" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I997" s="3" t="s">
         <v>3449</v>
-      </c>
-      <c r="I997" s="3" t="s">
-        <v>3450</v>
       </c>
       <c r="J997" s="4"/>
     </row>
     <row r="998">
       <c r="A998" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B998" s="1" t="s">
         <v>3451</v>
-      </c>
-      <c r="B998" s="1" t="s">
-        <v>3452</v>
       </c>
       <c r="C998" s="1" t="s">
         <v>2</v>
@@ -38025,19 +38023,19 @@
         <v>4</v>
       </c>
       <c r="H998" s="2" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I998" s="3" t="s">
         <v>3449</v>
-      </c>
-      <c r="I998" s="3" t="s">
-        <v>3450</v>
       </c>
       <c r="J998" s="4"/>
     </row>
     <row r="999">
       <c r="A999" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B999" s="1" t="s">
         <v>3453</v>
-      </c>
-      <c r="B999" s="1" t="s">
-        <v>3454</v>
       </c>
       <c r="C999" s="1" t="s">
         <v>2</v>
@@ -38052,19 +38050,19 @@
         <v>4</v>
       </c>
       <c r="H999" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="I999" s="3" t="s">
         <v>3241</v>
-      </c>
-      <c r="I999" s="3" t="s">
-        <v>3242</v>
       </c>
       <c r="J999" s="4"/>
     </row>
     <row r="1000">
       <c r="A1000" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B1000" s="1" t="s">
         <v>3455</v>
-      </c>
-      <c r="B1000" s="1" t="s">
-        <v>3456</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>2</v>
@@ -38079,19 +38077,19 @@
         <v>4</v>
       </c>
       <c r="H1000" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1000" s="3" t="s">
         <v>3457</v>
-      </c>
-      <c r="I1000" s="3" t="s">
-        <v>3458</v>
       </c>
       <c r="J1000" s="4"/>
     </row>
     <row r="1001">
       <c r="A1001" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B1001" s="1" t="s">
         <v>3459</v>
-      </c>
-      <c r="B1001" s="1" t="s">
-        <v>3460</v>
       </c>
       <c r="C1001" s="1" t="s">
         <v>2</v>
@@ -38106,19 +38104,19 @@
         <v>4</v>
       </c>
       <c r="H1001" s="2" t="s">
+        <v>3460</v>
+      </c>
+      <c r="I1001" s="3" t="s">
         <v>3461</v>
-      </c>
-      <c r="I1001" s="3" t="s">
-        <v>3462</v>
       </c>
       <c r="J1001" s="4"/>
     </row>
     <row r="1002">
       <c r="A1002" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1002" s="1" t="s">
         <v>3463</v>
-      </c>
-      <c r="B1002" s="1" t="s">
-        <v>3464</v>
       </c>
       <c r="C1002" s="1" t="s">
         <v>2</v>
@@ -38133,19 +38131,19 @@
         <v>4</v>
       </c>
       <c r="H1002" s="2" t="s">
+        <v>3464</v>
+      </c>
+      <c r="I1002" s="3" t="s">
         <v>3465</v>
-      </c>
-      <c r="I1002" s="3" t="s">
-        <v>3466</v>
       </c>
       <c r="J1002" s="4"/>
     </row>
     <row r="1003">
       <c r="A1003" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1003" s="1" t="s">
         <v>3467</v>
-      </c>
-      <c r="B1003" s="1" t="s">
-        <v>3468</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>2</v>
@@ -38160,19 +38158,19 @@
         <v>4</v>
       </c>
       <c r="H1003" s="2" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I1003" s="6" t="s">
         <v>3469</v>
-      </c>
-      <c r="I1003" s="6" t="s">
-        <v>3470</v>
       </c>
       <c r="J1003" s="4"/>
     </row>
     <row r="1004">
       <c r="A1004" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B1004" s="1" t="s">
         <v>3471</v>
-      </c>
-      <c r="B1004" s="1" t="s">
-        <v>3472</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>2</v>
@@ -38187,19 +38185,19 @@
         <v>4</v>
       </c>
       <c r="H1004" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="I1004" s="6" t="s">
         <v>3473</v>
-      </c>
-      <c r="I1004" s="6" t="s">
-        <v>3474</v>
       </c>
       <c r="J1004" s="4"/>
     </row>
     <row r="1005">
       <c r="A1005" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B1005" s="1" t="s">
         <v>3475</v>
-      </c>
-      <c r="B1005" s="1" t="s">
-        <v>3476</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>2</v>
@@ -38214,19 +38212,19 @@
         <v>4</v>
       </c>
       <c r="H1005" s="2" t="s">
+        <v>3476</v>
+      </c>
+      <c r="I1005" s="6" t="s">
         <v>3477</v>
-      </c>
-      <c r="I1005" s="6" t="s">
-        <v>3478</v>
       </c>
       <c r="J1005" s="4"/>
     </row>
     <row r="1006">
       <c r="A1006" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B1006" s="1" t="s">
         <v>3479</v>
-      </c>
-      <c r="B1006" s="1" t="s">
-        <v>3480</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>2</v>
@@ -38241,19 +38239,19 @@
         <v>4</v>
       </c>
       <c r="H1006" s="2" t="s">
+        <v>3480</v>
+      </c>
+      <c r="I1006" s="6" t="s">
         <v>3481</v>
-      </c>
-      <c r="I1006" s="6" t="s">
-        <v>3482</v>
       </c>
       <c r="J1006" s="4"/>
     </row>
     <row r="1007">
       <c r="A1007" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B1007" s="1" t="s">
         <v>3483</v>
-      </c>
-      <c r="B1007" s="1" t="s">
-        <v>3484</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>2</v>
@@ -38268,19 +38266,19 @@
         <v>4</v>
       </c>
       <c r="H1007" s="2" t="s">
+        <v>3484</v>
+      </c>
+      <c r="I1007" s="5" t="s">
         <v>3485</v>
-      </c>
-      <c r="I1007" s="5" t="s">
-        <v>3486</v>
       </c>
       <c r="J1007" s="4"/>
     </row>
     <row r="1008">
       <c r="A1008" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1008" s="1" t="s">
         <v>3487</v>
-      </c>
-      <c r="B1008" s="1" t="s">
-        <v>3488</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>2</v>
@@ -38295,19 +38293,19 @@
         <v>4</v>
       </c>
       <c r="H1008" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I1008" s="3" t="s">
         <v>3489</v>
-      </c>
-      <c r="I1008" s="3" t="s">
-        <v>3490</v>
       </c>
       <c r="J1008" s="4"/>
     </row>
     <row r="1009">
       <c r="A1009" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B1009" s="1" t="s">
         <v>3491</v>
-      </c>
-      <c r="B1009" s="1" t="s">
-        <v>3492</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>2</v>
@@ -38331,10 +38329,10 @@
     </row>
     <row r="1010">
       <c r="A1010" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B1010" s="1" t="s">
         <v>3493</v>
-      </c>
-      <c r="B1010" s="1" t="s">
-        <v>3494</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>2</v>
@@ -38349,19 +38347,19 @@
         <v>4</v>
       </c>
       <c r="H1010" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="I1010" s="3" t="s">
         <v>3495</v>
-      </c>
-      <c r="I1010" s="3" t="s">
-        <v>3496</v>
       </c>
       <c r="J1010" s="4"/>
     </row>
     <row r="1011">
       <c r="A1011" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1011" s="1" t="s">
         <v>3497</v>
-      </c>
-      <c r="B1011" s="1" t="s">
-        <v>3498</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>2</v>
@@ -38376,19 +38374,19 @@
         <v>4</v>
       </c>
       <c r="H1011" s="2" t="s">
+        <v>3498</v>
+      </c>
+      <c r="I1011" s="3" t="s">
         <v>3499</v>
-      </c>
-      <c r="I1011" s="3" t="s">
-        <v>3500</v>
       </c>
       <c r="J1011" s="4"/>
     </row>
     <row r="1012">
       <c r="A1012" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B1012" s="1" t="s">
         <v>3501</v>
-      </c>
-      <c r="B1012" s="1" t="s">
-        <v>3502</v>
       </c>
       <c r="C1012" s="1" t="s">
         <v>2</v>
@@ -38403,19 +38401,19 @@
         <v>4</v>
       </c>
       <c r="H1012" s="2" t="s">
+        <v>3502</v>
+      </c>
+      <c r="I1012" s="3" t="s">
         <v>3503</v>
-      </c>
-      <c r="I1012" s="3" t="s">
-        <v>3504</v>
       </c>
       <c r="J1012" s="4"/>
     </row>
     <row r="1013">
       <c r="A1013" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B1013" s="1" t="s">
         <v>3505</v>
-      </c>
-      <c r="B1013" s="1" t="s">
-        <v>3506</v>
       </c>
       <c r="C1013" s="1" t="s">
         <v>2</v>
@@ -38430,19 +38428,19 @@
         <v>4</v>
       </c>
       <c r="H1013" s="2" t="s">
+        <v>3506</v>
+      </c>
+      <c r="I1013" s="3" t="s">
         <v>3507</v>
-      </c>
-      <c r="I1013" s="3" t="s">
-        <v>3508</v>
       </c>
       <c r="J1013" s="4"/>
     </row>
     <row r="1014">
       <c r="A1014" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B1014" s="1" t="s">
         <v>3509</v>
-      </c>
-      <c r="B1014" s="1" t="s">
-        <v>3510</v>
       </c>
       <c r="C1014" s="1" t="s">
         <v>2</v>
@@ -38457,19 +38455,19 @@
         <v>220</v>
       </c>
       <c r="H1014" s="2" t="s">
+        <v>3510</v>
+      </c>
+      <c r="I1014" s="5" t="s">
         <v>3511</v>
-      </c>
-      <c r="I1014" s="5" t="s">
-        <v>3512</v>
       </c>
       <c r="J1014" s="4"/>
     </row>
     <row r="1015">
       <c r="A1015" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B1015" s="1" t="s">
         <v>3513</v>
-      </c>
-      <c r="B1015" s="1" t="s">
-        <v>3514</v>
       </c>
       <c r="C1015" s="1" t="s">
         <v>2</v>
@@ -38493,10 +38491,10 @@
     </row>
     <row r="1016">
       <c r="A1016" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B1016" s="1" t="s">
         <v>3515</v>
-      </c>
-      <c r="B1016" s="1" t="s">
-        <v>3516</v>
       </c>
       <c r="C1016" s="1" t="s">
         <v>2</v>
@@ -38520,10 +38518,10 @@
     </row>
     <row r="1017">
       <c r="A1017" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B1017" s="1" t="s">
         <v>3517</v>
-      </c>
-      <c r="B1017" s="1" t="s">
-        <v>3518</v>
       </c>
       <c r="C1017" s="1" t="s">
         <v>2</v>
@@ -38547,10 +38545,10 @@
     </row>
     <row r="1018">
       <c r="A1018" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B1018" s="1" t="s">
         <v>3519</v>
-      </c>
-      <c r="B1018" s="1" t="s">
-        <v>3520</v>
       </c>
       <c r="C1018" s="1" t="s">
         <v>2</v>
@@ -38574,10 +38572,10 @@
     </row>
     <row r="1019">
       <c r="A1019" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B1019" s="1" t="s">
         <v>3521</v>
-      </c>
-      <c r="B1019" s="1" t="s">
-        <v>3522</v>
       </c>
       <c r="C1019" s="1" t="s">
         <v>2</v>
@@ -38592,19 +38590,19 @@
         <v>4</v>
       </c>
       <c r="H1019" s="2" t="s">
+        <v>3522</v>
+      </c>
+      <c r="I1019" s="3" t="s">
         <v>3523</v>
-      </c>
-      <c r="I1019" s="3" t="s">
-        <v>3524</v>
       </c>
       <c r="J1019" s="4"/>
     </row>
     <row r="1020">
       <c r="A1020" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B1020" s="1" t="s">
         <v>3525</v>
-      </c>
-      <c r="B1020" s="1" t="s">
-        <v>3526</v>
       </c>
       <c r="C1020" s="1" t="s">
         <v>2</v>
@@ -38619,19 +38617,19 @@
         <v>4</v>
       </c>
       <c r="H1020" s="2" t="s">
+        <v>3526</v>
+      </c>
+      <c r="I1020" s="3" t="s">
         <v>3527</v>
-      </c>
-      <c r="I1020" s="3" t="s">
-        <v>3528</v>
       </c>
       <c r="J1020" s="4"/>
     </row>
     <row r="1021">
       <c r="A1021" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B1021" s="1" t="s">
         <v>3529</v>
-      </c>
-      <c r="B1021" s="1" t="s">
-        <v>3530</v>
       </c>
       <c r="C1021" s="1" t="s">
         <v>2</v>
@@ -38646,19 +38644,19 @@
         <v>4</v>
       </c>
       <c r="H1021" s="2" t="s">
+        <v>3530</v>
+      </c>
+      <c r="I1021" s="3" t="s">
         <v>3531</v>
-      </c>
-      <c r="I1021" s="3" t="s">
-        <v>3532</v>
       </c>
       <c r="J1021" s="4"/>
     </row>
     <row r="1022">
       <c r="A1022" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B1022" s="1" t="s">
         <v>3533</v>
-      </c>
-      <c r="B1022" s="1" t="s">
-        <v>3534</v>
       </c>
       <c r="C1022" s="1" t="s">
         <v>2</v>
@@ -38682,10 +38680,10 @@
     </row>
     <row r="1023">
       <c r="A1023" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B1023" s="1" t="s">
         <v>3535</v>
-      </c>
-      <c r="B1023" s="1" t="s">
-        <v>3536</v>
       </c>
       <c r="C1023" s="1" t="s">
         <v>2</v>
@@ -38709,10 +38707,10 @@
     </row>
     <row r="1024">
       <c r="A1024" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B1024" s="1" t="s">
         <v>3537</v>
-      </c>
-      <c r="B1024" s="1" t="s">
-        <v>3538</v>
       </c>
       <c r="C1024" s="1" t="s">
         <v>2</v>
@@ -38736,10 +38734,10 @@
     </row>
     <row r="1025">
       <c r="A1025" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B1025" s="1" t="s">
         <v>3539</v>
-      </c>
-      <c r="B1025" s="1" t="s">
-        <v>3540</v>
       </c>
       <c r="C1025" s="1" t="s">
         <v>2</v>
@@ -38754,19 +38752,19 @@
         <v>4</v>
       </c>
       <c r="H1025" s="2" t="s">
+        <v>3506</v>
+      </c>
+      <c r="I1025" s="3" t="s">
         <v>3507</v>
-      </c>
-      <c r="I1025" s="3" t="s">
-        <v>3508</v>
       </c>
       <c r="J1025" s="4"/>
     </row>
     <row r="1026">
       <c r="A1026" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B1026" s="1" t="s">
         <v>3541</v>
-      </c>
-      <c r="B1026" s="1" t="s">
-        <v>3542</v>
       </c>
       <c r="C1026" s="1" t="s">
         <v>2</v>
@@ -38781,19 +38779,19 @@
         <v>4</v>
       </c>
       <c r="H1026" s="2" t="s">
+        <v>3542</v>
+      </c>
+      <c r="I1026" s="3" t="s">
         <v>3543</v>
-      </c>
-      <c r="I1026" s="3" t="s">
-        <v>3544</v>
       </c>
       <c r="J1026" s="4"/>
     </row>
     <row r="1027">
       <c r="A1027" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B1027" s="1" t="s">
         <v>3545</v>
-      </c>
-      <c r="B1027" s="1" t="s">
-        <v>3546</v>
       </c>
       <c r="C1027" s="1" t="s">
         <v>2</v>
@@ -38817,10 +38815,10 @@
     </row>
     <row r="1028">
       <c r="A1028" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B1028" s="1" t="s">
         <v>3547</v>
-      </c>
-      <c r="B1028" s="1" t="s">
-        <v>3548</v>
       </c>
       <c r="C1028" s="1" t="s">
         <v>2</v>
@@ -38844,10 +38842,10 @@
     </row>
     <row r="1029">
       <c r="A1029" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B1029" s="1" t="s">
         <v>3549</v>
-      </c>
-      <c r="B1029" s="1" t="s">
-        <v>3550</v>
       </c>
       <c r="C1029" s="1" t="s">
         <v>2</v>
@@ -38871,10 +38869,10 @@
     </row>
     <row r="1030">
       <c r="A1030" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B1030" s="1" t="s">
         <v>3551</v>
-      </c>
-      <c r="B1030" s="1" t="s">
-        <v>3552</v>
       </c>
       <c r="C1030" s="1" t="s">
         <v>2</v>
@@ -38889,19 +38887,19 @@
         <v>4</v>
       </c>
       <c r="H1030" s="2" t="s">
+        <v>3552</v>
+      </c>
+      <c r="I1030" s="3" t="s">
         <v>3553</v>
-      </c>
-      <c r="I1030" s="3" t="s">
-        <v>3554</v>
       </c>
       <c r="J1030" s="4"/>
     </row>
     <row r="1031">
       <c r="A1031" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B1031" s="1" t="s">
         <v>3555</v>
-      </c>
-      <c r="B1031" s="1" t="s">
-        <v>3556</v>
       </c>
       <c r="C1031" s="1" t="s">
         <v>2</v>
@@ -38916,19 +38914,19 @@
         <v>4</v>
       </c>
       <c r="H1031" s="2" t="s">
+        <v>3556</v>
+      </c>
+      <c r="I1031" s="3" t="s">
         <v>3557</v>
-      </c>
-      <c r="I1031" s="3" t="s">
-        <v>3558</v>
       </c>
       <c r="J1031" s="4"/>
     </row>
     <row r="1032">
       <c r="A1032" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B1032" s="1" t="s">
         <v>3559</v>
-      </c>
-      <c r="B1032" s="1" t="s">
-        <v>3560</v>
       </c>
       <c r="C1032" s="1" t="s">
         <v>2</v>
@@ -38943,19 +38941,19 @@
         <v>4</v>
       </c>
       <c r="H1032" s="2" t="s">
+        <v>3560</v>
+      </c>
+      <c r="I1032" s="3" t="s">
         <v>3561</v>
-      </c>
-      <c r="I1032" s="3" t="s">
-        <v>3562</v>
       </c>
       <c r="J1032" s="4"/>
     </row>
     <row r="1033">
       <c r="A1033" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B1033" s="1" t="s">
         <v>3563</v>
-      </c>
-      <c r="B1033" s="1" t="s">
-        <v>3564</v>
       </c>
       <c r="C1033" s="1" t="s">
         <v>2</v>
@@ -38970,19 +38968,19 @@
         <v>4</v>
       </c>
       <c r="H1033" s="2" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I1033" s="3" t="s">
         <v>3565</v>
-      </c>
-      <c r="I1033" s="3" t="s">
-        <v>3566</v>
       </c>
       <c r="J1033" s="4"/>
     </row>
     <row r="1034">
       <c r="A1034" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1034" s="1" t="s">
         <v>3567</v>
-      </c>
-      <c r="B1034" s="1" t="s">
-        <v>3568</v>
       </c>
       <c r="C1034" s="1" t="s">
         <v>2</v>
@@ -39006,10 +39004,10 @@
     </row>
     <row r="1035">
       <c r="A1035" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B1035" s="1" t="s">
         <v>3569</v>
-      </c>
-      <c r="B1035" s="1" t="s">
-        <v>3570</v>
       </c>
       <c r="C1035" s="1" t="s">
         <v>2</v>
@@ -39024,19 +39022,19 @@
         <v>4</v>
       </c>
       <c r="H1035" s="2" t="s">
+        <v>3570</v>
+      </c>
+      <c r="I1035" s="3" t="s">
         <v>3571</v>
-      </c>
-      <c r="I1035" s="3" t="s">
-        <v>3572</v>
       </c>
       <c r="J1035" s="4"/>
     </row>
     <row r="1036">
       <c r="A1036" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B1036" s="1" t="s">
         <v>3573</v>
-      </c>
-      <c r="B1036" s="1" t="s">
-        <v>3574</v>
       </c>
       <c r="C1036" s="1" t="s">
         <v>2</v>
@@ -39051,19 +39049,19 @@
         <v>4</v>
       </c>
       <c r="H1036" s="2" t="s">
+        <v>3574</v>
+      </c>
+      <c r="I1036" s="3" t="s">
         <v>3575</v>
-      </c>
-      <c r="I1036" s="3" t="s">
-        <v>3576</v>
       </c>
       <c r="J1036" s="4"/>
     </row>
     <row r="1037">
       <c r="A1037" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B1037" s="1" t="s">
         <v>3577</v>
-      </c>
-      <c r="B1037" s="1" t="s">
-        <v>3578</v>
       </c>
       <c r="C1037" s="1" t="s">
         <v>2</v>
@@ -39078,19 +39076,19 @@
         <v>4</v>
       </c>
       <c r="H1037" s="2" t="s">
+        <v>3578</v>
+      </c>
+      <c r="I1037" s="3" t="s">
         <v>3579</v>
-      </c>
-      <c r="I1037" s="3" t="s">
-        <v>3580</v>
       </c>
       <c r="J1037" s="4"/>
     </row>
     <row r="1038">
       <c r="A1038" s="1" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B1038" s="1" t="s">
         <v>3581</v>
-      </c>
-      <c r="B1038" s="1" t="s">
-        <v>3582</v>
       </c>
       <c r="C1038" s="1" t="s">
         <v>2</v>
@@ -39105,19 +39103,19 @@
         <v>4</v>
       </c>
       <c r="H1038" s="2" t="s">
+        <v>3582</v>
+      </c>
+      <c r="I1038" s="3" t="s">
         <v>3583</v>
-      </c>
-      <c r="I1038" s="3" t="s">
-        <v>3584</v>
       </c>
       <c r="J1038" s="4"/>
     </row>
     <row r="1039">
       <c r="A1039" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B1039" s="1" t="s">
         <v>3585</v>
-      </c>
-      <c r="B1039" s="1" t="s">
-        <v>3586</v>
       </c>
       <c r="C1039" s="1" t="s">
         <v>2</v>
@@ -39132,19 +39130,19 @@
         <v>4</v>
       </c>
       <c r="H1039" s="2" t="s">
+        <v>3586</v>
+      </c>
+      <c r="I1039" s="3" t="s">
         <v>3587</v>
-      </c>
-      <c r="I1039" s="3" t="s">
-        <v>3588</v>
       </c>
       <c r="J1039" s="4"/>
     </row>
     <row r="1040">
       <c r="A1040" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B1040" s="1" t="s">
         <v>3589</v>
-      </c>
-      <c r="B1040" s="1" t="s">
-        <v>3590</v>
       </c>
       <c r="C1040" s="1" t="s">
         <v>2</v>
@@ -39159,19 +39157,19 @@
         <v>4</v>
       </c>
       <c r="H1040" s="2" t="s">
+        <v>3590</v>
+      </c>
+      <c r="I1040" s="3" t="s">
         <v>3591</v>
-      </c>
-      <c r="I1040" s="3" t="s">
-        <v>3592</v>
       </c>
       <c r="J1040" s="4"/>
     </row>
     <row r="1041">
       <c r="A1041" s="1" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B1041" s="1" t="s">
         <v>3593</v>
-      </c>
-      <c r="B1041" s="1" t="s">
-        <v>3594</v>
       </c>
       <c r="C1041" s="1" t="s">
         <v>2</v>
@@ -39186,10 +39184,10 @@
         <v>4</v>
       </c>
       <c r="H1041" s="2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="I1041" s="3" t="s">
         <v>3595</v>
-      </c>
-      <c r="I1041" s="3" t="s">
-        <v>3596</v>
       </c>
       <c r="J1041" s="4"/>
     </row>
